--- a/04-21/addr.xlsx
+++ b/04-21/addr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="651">
   <si>
     <t>#define</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2115,6 +2115,510 @@
   </si>
   <si>
     <t>0x007f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家信息返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_FACTORY_INFO_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_PRODUCT_INFO_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂品信息返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PRODUCT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PRODUCT_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_PRODUCT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_INTERFACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SETTING_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENSOR返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_GPRS_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS设置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_WIFI_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI设置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEST_GPRS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试GPRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态返回1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEST_GPRS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEST_GPRS_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEST_GPRS_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_STATE_RETURN_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态返回2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态返回3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态返回4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_ONE_MINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时1分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_FIVE_MINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TEN_MINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_NEVER_MINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时5分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不熄灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_EXIT_VERIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_VP_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校准点7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_GPRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择gprs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_XFER_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_XFER_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_MON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_HOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SYNC_SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TIME_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TIME_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2529,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8364,6 +8868,888 @@
       </c>
       <c r="F345">
         <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>525</v>
+      </c>
+      <c r="B347" t="s">
+        <v>528</v>
+      </c>
+      <c r="C347" t="s">
+        <v>526</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347" t="s">
+        <v>527</v>
+      </c>
+      <c r="F347">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>525</v>
+      </c>
+      <c r="B349" t="s">
+        <v>529</v>
+      </c>
+      <c r="C349" t="s">
+        <v>530</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349" t="s">
+        <v>531</v>
+      </c>
+      <c r="F349">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>532</v>
+      </c>
+      <c r="B350" t="s">
+        <v>533</v>
+      </c>
+      <c r="E350" t="s">
+        <v>534</v>
+      </c>
+      <c r="F350">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>532</v>
+      </c>
+      <c r="B351" t="s">
+        <v>535</v>
+      </c>
+      <c r="E351" t="s">
+        <v>536</v>
+      </c>
+      <c r="F351">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>532</v>
+      </c>
+      <c r="B352" t="s">
+        <v>537</v>
+      </c>
+      <c r="E352" t="s">
+        <v>538</v>
+      </c>
+      <c r="F352">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>539</v>
+      </c>
+      <c r="B354" t="s">
+        <v>540</v>
+      </c>
+      <c r="C354" t="s">
+        <v>541</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354" t="s">
+        <v>542</v>
+      </c>
+      <c r="F354">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>539</v>
+      </c>
+      <c r="B355" t="s">
+        <v>543</v>
+      </c>
+      <c r="C355" t="s">
+        <v>544</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" t="s">
+        <v>545</v>
+      </c>
+      <c r="F355">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>539</v>
+      </c>
+      <c r="B356" t="s">
+        <v>546</v>
+      </c>
+      <c r="C356" t="s">
+        <v>547</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356" t="s">
+        <v>548</v>
+      </c>
+      <c r="F356">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>539</v>
+      </c>
+      <c r="B357" t="s">
+        <v>549</v>
+      </c>
+      <c r="C357" t="s">
+        <v>550</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357" t="s">
+        <v>551</v>
+      </c>
+      <c r="F357">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>539</v>
+      </c>
+      <c r="B359" t="s">
+        <v>552</v>
+      </c>
+      <c r="C359" t="s">
+        <v>553</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359" t="s">
+        <v>554</v>
+      </c>
+      <c r="F359">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>539</v>
+      </c>
+      <c r="B361" t="s">
+        <v>555</v>
+      </c>
+      <c r="C361" t="s">
+        <v>556</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>557</v>
+      </c>
+      <c r="F361">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>539</v>
+      </c>
+      <c r="B363" t="s">
+        <v>558</v>
+      </c>
+      <c r="C363" t="s">
+        <v>559</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363" t="s">
+        <v>560</v>
+      </c>
+      <c r="F363">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>539</v>
+      </c>
+      <c r="B364" t="s">
+        <v>561</v>
+      </c>
+      <c r="C364" t="s">
+        <v>562</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364" t="s">
+        <v>563</v>
+      </c>
+      <c r="F364">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>539</v>
+      </c>
+      <c r="B366" t="s">
+        <v>564</v>
+      </c>
+      <c r="C366" t="s">
+        <v>570</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366" t="s">
+        <v>560</v>
+      </c>
+      <c r="F366">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>539</v>
+      </c>
+      <c r="B367" t="s">
+        <v>565</v>
+      </c>
+      <c r="C367" t="s">
+        <v>571</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367" t="s">
+        <v>576</v>
+      </c>
+      <c r="F367">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>539</v>
+      </c>
+      <c r="B369" t="s">
+        <v>566</v>
+      </c>
+      <c r="C369" t="s">
+        <v>572</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369" t="s">
+        <v>560</v>
+      </c>
+      <c r="F369">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>539</v>
+      </c>
+      <c r="B370" t="s">
+        <v>567</v>
+      </c>
+      <c r="C370" t="s">
+        <v>573</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370" t="s">
+        <v>577</v>
+      </c>
+      <c r="F370">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>539</v>
+      </c>
+      <c r="B372" t="s">
+        <v>568</v>
+      </c>
+      <c r="C372" t="s">
+        <v>574</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372" t="s">
+        <v>560</v>
+      </c>
+      <c r="F372">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>539</v>
+      </c>
+      <c r="B373" t="s">
+        <v>569</v>
+      </c>
+      <c r="C373" t="s">
+        <v>575</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373" t="s">
+        <v>578</v>
+      </c>
+      <c r="F373">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
+        <v>539</v>
+      </c>
+      <c r="B375" t="s">
+        <v>579</v>
+      </c>
+      <c r="C375" t="s">
+        <v>580</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375" t="s">
+        <v>581</v>
+      </c>
+      <c r="F375">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>539</v>
+      </c>
+      <c r="B376" t="s">
+        <v>582</v>
+      </c>
+      <c r="C376" t="s">
+        <v>588</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>585</v>
+      </c>
+      <c r="F376">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
+        <v>539</v>
+      </c>
+      <c r="B377" t="s">
+        <v>583</v>
+      </c>
+      <c r="C377" t="s">
+        <v>589</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377" t="s">
+        <v>586</v>
+      </c>
+      <c r="F377">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>539</v>
+      </c>
+      <c r="B378" t="s">
+        <v>584</v>
+      </c>
+      <c r="C378" t="s">
+        <v>590</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378" t="s">
+        <v>587</v>
+      </c>
+      <c r="F378">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>591</v>
+      </c>
+      <c r="B380" t="s">
+        <v>592</v>
+      </c>
+      <c r="C380" t="s">
+        <v>593</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380" t="s">
+        <v>594</v>
+      </c>
+      <c r="F380">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>591</v>
+      </c>
+      <c r="B381" t="s">
+        <v>595</v>
+      </c>
+      <c r="C381" t="s">
+        <v>596</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>597</v>
+      </c>
+      <c r="F381">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
+        <v>591</v>
+      </c>
+      <c r="B382" t="s">
+        <v>598</v>
+      </c>
+      <c r="C382" t="s">
+        <v>612</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>605</v>
+      </c>
+      <c r="F382">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
+        <v>591</v>
+      </c>
+      <c r="B383" t="s">
+        <v>599</v>
+      </c>
+      <c r="C383" t="s">
+        <v>613</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383" t="s">
+        <v>606</v>
+      </c>
+      <c r="F383">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A384" t="s">
+        <v>591</v>
+      </c>
+      <c r="B384" t="s">
+        <v>600</v>
+      </c>
+      <c r="C384" t="s">
+        <v>614</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384" t="s">
+        <v>607</v>
+      </c>
+      <c r="F384">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
+        <v>591</v>
+      </c>
+      <c r="B385" t="s">
+        <v>601</v>
+      </c>
+      <c r="C385" t="s">
+        <v>615</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385" t="s">
+        <v>608</v>
+      </c>
+      <c r="F385">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>591</v>
+      </c>
+      <c r="B386" t="s">
+        <v>602</v>
+      </c>
+      <c r="C386" t="s">
+        <v>616</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>609</v>
+      </c>
+      <c r="F386">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>591</v>
+      </c>
+      <c r="B387" t="s">
+        <v>603</v>
+      </c>
+      <c r="C387" t="s">
+        <v>617</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387" t="s">
+        <v>610</v>
+      </c>
+      <c r="F387">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
+        <v>591</v>
+      </c>
+      <c r="B388" t="s">
+        <v>604</v>
+      </c>
+      <c r="C388" t="s">
+        <v>618</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388" t="s">
+        <v>611</v>
+      </c>
+      <c r="F388">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
+        <v>619</v>
+      </c>
+      <c r="B390" t="s">
+        <v>620</v>
+      </c>
+      <c r="C390" t="s">
+        <v>621</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390" t="s">
+        <v>622</v>
+      </c>
+      <c r="F390">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A391" t="s">
+        <v>619</v>
+      </c>
+      <c r="B391" t="s">
+        <v>623</v>
+      </c>
+      <c r="C391" t="s">
+        <v>624</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
+        <v>625</v>
+      </c>
+      <c r="F391">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A392" t="s">
+        <v>619</v>
+      </c>
+      <c r="B392" t="s">
+        <v>626</v>
+      </c>
+      <c r="C392" t="s">
+        <v>628</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>630</v>
+      </c>
+      <c r="F392">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
+        <v>619</v>
+      </c>
+      <c r="B393" t="s">
+        <v>627</v>
+      </c>
+      <c r="C393" t="s">
+        <v>629</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393" t="s">
+        <v>631</v>
+      </c>
+      <c r="F393">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
+        <v>591</v>
+      </c>
+      <c r="B395" t="s">
+        <v>632</v>
+      </c>
+      <c r="C395" t="s">
+        <v>633</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395" t="s">
+        <v>634</v>
+      </c>
+      <c r="F395">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
+        <v>591</v>
+      </c>
+      <c r="B396" t="s">
+        <v>635</v>
+      </c>
+      <c r="C396" t="s">
+        <v>633</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>643</v>
+      </c>
+      <c r="F396">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
+        <v>591</v>
+      </c>
+      <c r="B397" t="s">
+        <v>636</v>
+      </c>
+      <c r="C397" t="s">
+        <v>633</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397" t="s">
+        <v>644</v>
+      </c>
+      <c r="F397">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
+        <v>591</v>
+      </c>
+      <c r="B398" t="s">
+        <v>637</v>
+      </c>
+      <c r="C398" t="s">
+        <v>633</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
+        <v>645</v>
+      </c>
+      <c r="F398">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>591</v>
+      </c>
+      <c r="B399" t="s">
+        <v>638</v>
+      </c>
+      <c r="C399" t="s">
+        <v>633</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>646</v>
+      </c>
+      <c r="F399">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>591</v>
+      </c>
+      <c r="B400" t="s">
+        <v>639</v>
+      </c>
+      <c r="C400" t="s">
+        <v>633</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>647</v>
+      </c>
+      <c r="F400">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
+        <v>591</v>
+      </c>
+      <c r="B401" t="s">
+        <v>640</v>
+      </c>
+      <c r="C401" t="s">
+        <v>633</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401" t="s">
+        <v>648</v>
+      </c>
+      <c r="F401">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
+        <v>591</v>
+      </c>
+      <c r="B402" t="s">
+        <v>641</v>
+      </c>
+      <c r="C402" t="s">
+        <v>633</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402" t="s">
+        <v>649</v>
+      </c>
+      <c r="F402">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
+        <v>591</v>
+      </c>
+      <c r="B403" t="s">
+        <v>642</v>
+      </c>
+      <c r="C403" t="s">
+        <v>633</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403" t="s">
+        <v>650</v>
+      </c>
+      <c r="F403">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/04-21/addr.xlsx
+++ b/04-21/addr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1058">
   <si>
     <t>#define</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2546,38 +2546,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOUCH_YEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOUCH_MON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_DAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_HOUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_SEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TOUCH_SYNC_SERVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2619,6 +2591,1662 @@
   </si>
   <si>
     <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始调零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束调零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TUN_ZERO_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_LOGIN_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_LOGIN_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SENSOR_SETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_XFER_SETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_TIME_SETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_FACTORY_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SLEEP_SETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SYSTEM_SETTING_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTRFACE_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00bf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_HCHO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲醛1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_HCHO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_CO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_CO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_CO2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_CO2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_WENSHI_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_PRESS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_PM25_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_NOISE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_WIND_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_SEL_UNKNOWN_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲醛2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温湿1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪声1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择传感器返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00c9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_USER_INFO_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00d2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_WAKE_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00e9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x010f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x012b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x013b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x016d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x018b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01b7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x019b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x020f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x022d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x026f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x029b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x023d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x027f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0295</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02b9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0327</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x033d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02c9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02f5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x030b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x034d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x035b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x039d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03c9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03f5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x036b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03d9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03fd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x043f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x046b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x049b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x040d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x044f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x047b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x049f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04e1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04f7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x050d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x053d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x051d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x056d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x057d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05bf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05d5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x060f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x063b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x067d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x061f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0635</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x064b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x069b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x071f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0727</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x073d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x077f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x074d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0779</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x078f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07c9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07f5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x084d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07d9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08eb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x085d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x086b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x088b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址校准点0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_VP_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_XIUZHENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_JIAOZHUN_REAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08bf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08c9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x090f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_XFER_SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_WIFI_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_AP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_AP_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0961</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_MON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_HOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_SEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x098b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x098d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TUN_ZERO_CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x098f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_TUN_ZERO_HCHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调零HCHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_LOGIN_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_LOGIN_USER_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x099b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INTERFACE_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09eb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a0b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a2b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a5b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a6b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a7b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a8b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CURRENT_SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a9b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前选择传感器型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_INSTALL_PLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_HANGYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_CONTACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0aab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0abb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0ae5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3033,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F403"/>
+  <dimension ref="A1:F488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="K340" sqref="K340"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="C488" sqref="C488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4653,6 +6281,9 @@
       <c r="B95" t="s">
         <v>216</v>
       </c>
+      <c r="C95" t="s">
+        <v>762</v>
+      </c>
       <c r="D95">
         <v>16</v>
       </c>
@@ -4669,6 +6300,9 @@
       </c>
       <c r="B96" t="s">
         <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>763</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -4687,6 +6321,9 @@
       <c r="B97" t="s">
         <v>222</v>
       </c>
+      <c r="C97" t="s">
+        <v>764</v>
+      </c>
       <c r="D97">
         <v>16</v>
       </c>
@@ -4703,6 +6340,9 @@
       </c>
       <c r="B98" t="s">
         <v>223</v>
+      </c>
+      <c r="C98" t="s">
+        <v>765</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -4721,6 +6361,9 @@
       <c r="B99" t="s">
         <v>224</v>
       </c>
+      <c r="C99" t="s">
+        <v>766</v>
+      </c>
       <c r="D99">
         <v>16</v>
       </c>
@@ -4737,6 +6380,9 @@
       </c>
       <c r="B100" t="s">
         <v>225</v>
+      </c>
+      <c r="C100" t="s">
+        <v>767</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -4755,6 +6401,9 @@
       <c r="B101" t="s">
         <v>226</v>
       </c>
+      <c r="C101" t="s">
+        <v>768</v>
+      </c>
       <c r="D101">
         <v>16</v>
       </c>
@@ -4771,6 +6420,9 @@
       </c>
       <c r="B102" t="s">
         <v>227</v>
+      </c>
+      <c r="C102" t="s">
+        <v>769</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -4789,6 +6441,9 @@
       <c r="B103" t="s">
         <v>228</v>
       </c>
+      <c r="C103" t="s">
+        <v>770</v>
+      </c>
       <c r="D103">
         <v>16</v>
       </c>
@@ -4805,6 +6460,9 @@
       </c>
       <c r="B104" t="s">
         <v>229</v>
+      </c>
+      <c r="C104" t="s">
+        <v>771</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -4823,6 +6481,9 @@
       <c r="B105" t="s">
         <v>230</v>
       </c>
+      <c r="C105" t="s">
+        <v>772</v>
+      </c>
       <c r="D105">
         <v>16</v>
       </c>
@@ -4839,6 +6500,9 @@
       </c>
       <c r="B106" t="s">
         <v>231</v>
+      </c>
+      <c r="C106" t="s">
+        <v>773</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -4857,6 +6521,9 @@
       <c r="B107" t="s">
         <v>232</v>
       </c>
+      <c r="C107" t="s">
+        <v>774</v>
+      </c>
       <c r="D107">
         <v>16</v>
       </c>
@@ -4874,6 +6541,9 @@
       <c r="B108" t="s">
         <v>233</v>
       </c>
+      <c r="C108" t="s">
+        <v>775</v>
+      </c>
       <c r="D108">
         <v>6</v>
       </c>
@@ -4970,6 +6640,9 @@
       </c>
       <c r="B113" t="s">
         <v>254</v>
+      </c>
+      <c r="C113" t="s">
+        <v>776</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -4988,6 +6661,9 @@
       <c r="B114" t="s">
         <v>257</v>
       </c>
+      <c r="C114" t="s">
+        <v>777</v>
+      </c>
       <c r="D114">
         <v>4</v>
       </c>
@@ -5005,6 +6681,9 @@
       <c r="B116" t="s">
         <v>262</v>
       </c>
+      <c r="C116" t="s">
+        <v>778</v>
+      </c>
       <c r="D116">
         <v>16</v>
       </c>
@@ -5021,6 +6700,9 @@
       </c>
       <c r="B117" t="s">
         <v>263</v>
+      </c>
+      <c r="C117" t="s">
+        <v>785</v>
       </c>
       <c r="D117">
         <v>6</v>
@@ -5039,6 +6721,9 @@
       <c r="B118" t="s">
         <v>264</v>
       </c>
+      <c r="C118" t="s">
+        <v>779</v>
+      </c>
       <c r="D118">
         <v>16</v>
       </c>
@@ -5055,6 +6740,9 @@
       </c>
       <c r="B119" t="s">
         <v>265</v>
+      </c>
+      <c r="C119" t="s">
+        <v>786</v>
       </c>
       <c r="D119">
         <v>6</v>
@@ -5073,6 +6761,9 @@
       <c r="B120" t="s">
         <v>266</v>
       </c>
+      <c r="C120" t="s">
+        <v>780</v>
+      </c>
       <c r="D120">
         <v>16</v>
       </c>
@@ -5089,6 +6780,9 @@
       </c>
       <c r="B121" t="s">
         <v>267</v>
+      </c>
+      <c r="C121" t="s">
+        <v>787</v>
       </c>
       <c r="D121">
         <v>6</v>
@@ -5107,6 +6801,9 @@
       <c r="B122" t="s">
         <v>268</v>
       </c>
+      <c r="C122" t="s">
+        <v>781</v>
+      </c>
       <c r="D122">
         <v>16</v>
       </c>
@@ -5123,6 +6820,9 @@
       </c>
       <c r="B123" t="s">
         <v>269</v>
+      </c>
+      <c r="C123" t="s">
+        <v>788</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -5141,6 +6841,9 @@
       <c r="B124" t="s">
         <v>270</v>
       </c>
+      <c r="C124" t="s">
+        <v>782</v>
+      </c>
       <c r="D124">
         <v>16</v>
       </c>
@@ -5157,6 +6860,9 @@
       </c>
       <c r="B125" t="s">
         <v>271</v>
+      </c>
+      <c r="C125" t="s">
+        <v>789</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -5175,6 +6881,9 @@
       <c r="B126" t="s">
         <v>272</v>
       </c>
+      <c r="C126" t="s">
+        <v>783</v>
+      </c>
       <c r="D126">
         <v>16</v>
       </c>
@@ -5191,6 +6900,9 @@
       </c>
       <c r="B127" t="s">
         <v>273</v>
+      </c>
+      <c r="C127" t="s">
+        <v>790</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -5209,6 +6921,9 @@
       <c r="B128" t="s">
         <v>274</v>
       </c>
+      <c r="C128" t="s">
+        <v>784</v>
+      </c>
       <c r="D128">
         <v>16</v>
       </c>
@@ -5226,6 +6941,9 @@
       <c r="B129" t="s">
         <v>275</v>
       </c>
+      <c r="C129" t="s">
+        <v>791</v>
+      </c>
       <c r="D129">
         <v>6</v>
       </c>
@@ -5322,6 +7040,9 @@
       </c>
       <c r="B134" t="s">
         <v>280</v>
+      </c>
+      <c r="C134" t="s">
+        <v>792</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -5340,6 +7061,9 @@
       <c r="B135" t="s">
         <v>281</v>
       </c>
+      <c r="C135" t="s">
+        <v>793</v>
+      </c>
       <c r="D135">
         <v>4</v>
       </c>
@@ -5357,6 +7081,9 @@
       <c r="B137" t="s">
         <v>282</v>
       </c>
+      <c r="C137" t="s">
+        <v>794</v>
+      </c>
       <c r="D137">
         <v>16</v>
       </c>
@@ -5373,6 +7100,9 @@
       </c>
       <c r="B138" t="s">
         <v>283</v>
+      </c>
+      <c r="C138" t="s">
+        <v>801</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -5391,6 +7121,9 @@
       <c r="B139" t="s">
         <v>284</v>
       </c>
+      <c r="C139" t="s">
+        <v>795</v>
+      </c>
       <c r="D139">
         <v>16</v>
       </c>
@@ -5407,6 +7140,9 @@
       </c>
       <c r="B140" t="s">
         <v>285</v>
+      </c>
+      <c r="C140" t="s">
+        <v>802</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -5425,6 +7161,9 @@
       <c r="B141" t="s">
         <v>286</v>
       </c>
+      <c r="C141" t="s">
+        <v>796</v>
+      </c>
       <c r="D141">
         <v>16</v>
       </c>
@@ -5441,6 +7180,9 @@
       </c>
       <c r="B142" t="s">
         <v>287</v>
+      </c>
+      <c r="C142" t="s">
+        <v>803</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -5459,6 +7201,9 @@
       <c r="B143" t="s">
         <v>288</v>
       </c>
+      <c r="C143" t="s">
+        <v>797</v>
+      </c>
       <c r="D143">
         <v>16</v>
       </c>
@@ -5475,6 +7220,9 @@
       </c>
       <c r="B144" t="s">
         <v>289</v>
+      </c>
+      <c r="C144" t="s">
+        <v>804</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -5493,6 +7241,9 @@
       <c r="B145" t="s">
         <v>290</v>
       </c>
+      <c r="C145" t="s">
+        <v>798</v>
+      </c>
       <c r="D145">
         <v>16</v>
       </c>
@@ -5509,6 +7260,9 @@
       </c>
       <c r="B146" t="s">
         <v>291</v>
+      </c>
+      <c r="C146" t="s">
+        <v>805</v>
       </c>
       <c r="D146">
         <v>6</v>
@@ -5527,6 +7281,9 @@
       <c r="B147" t="s">
         <v>292</v>
       </c>
+      <c r="C147" t="s">
+        <v>799</v>
+      </c>
       <c r="D147">
         <v>16</v>
       </c>
@@ -5543,6 +7300,9 @@
       </c>
       <c r="B148" t="s">
         <v>293</v>
+      </c>
+      <c r="C148" t="s">
+        <v>806</v>
       </c>
       <c r="D148">
         <v>6</v>
@@ -5561,6 +7321,9 @@
       <c r="B149" t="s">
         <v>294</v>
       </c>
+      <c r="C149" t="s">
+        <v>800</v>
+      </c>
       <c r="D149">
         <v>16</v>
       </c>
@@ -5578,6 +7341,9 @@
       <c r="B150" t="s">
         <v>295</v>
       </c>
+      <c r="C150" t="s">
+        <v>807</v>
+      </c>
       <c r="D150">
         <v>6</v>
       </c>
@@ -5674,6 +7440,9 @@
       </c>
       <c r="B155" t="s">
         <v>300</v>
+      </c>
+      <c r="C155" t="s">
+        <v>808</v>
       </c>
       <c r="D155">
         <v>4</v>
@@ -5692,6 +7461,9 @@
       <c r="B156" t="s">
         <v>301</v>
       </c>
+      <c r="C156" t="s">
+        <v>809</v>
+      </c>
       <c r="D156">
         <v>4</v>
       </c>
@@ -5709,6 +7481,9 @@
       <c r="B158" t="s">
         <v>302</v>
       </c>
+      <c r="C158" t="s">
+        <v>810</v>
+      </c>
       <c r="D158">
         <v>16</v>
       </c>
@@ -5725,6 +7500,9 @@
       </c>
       <c r="B159" t="s">
         <v>303</v>
+      </c>
+      <c r="C159" t="s">
+        <v>819</v>
       </c>
       <c r="D159">
         <v>6</v>
@@ -5743,6 +7521,9 @@
       <c r="B160" t="s">
         <v>304</v>
       </c>
+      <c r="C160" t="s">
+        <v>811</v>
+      </c>
       <c r="D160">
         <v>16</v>
       </c>
@@ -5759,6 +7540,9 @@
       </c>
       <c r="B161" t="s">
         <v>305</v>
+      </c>
+      <c r="C161" t="s">
+        <v>820</v>
       </c>
       <c r="D161">
         <v>6</v>
@@ -5777,6 +7561,9 @@
       <c r="B162" t="s">
         <v>306</v>
       </c>
+      <c r="C162" t="s">
+        <v>812</v>
+      </c>
       <c r="D162">
         <v>16</v>
       </c>
@@ -5793,6 +7580,9 @@
       </c>
       <c r="B163" t="s">
         <v>307</v>
+      </c>
+      <c r="C163" t="s">
+        <v>821</v>
       </c>
       <c r="D163">
         <v>6</v>
@@ -5811,6 +7601,9 @@
       <c r="B164" t="s">
         <v>308</v>
       </c>
+      <c r="C164" t="s">
+        <v>813</v>
+      </c>
       <c r="D164">
         <v>16</v>
       </c>
@@ -5827,6 +7620,9 @@
       </c>
       <c r="B165" t="s">
         <v>309</v>
+      </c>
+      <c r="C165" t="s">
+        <v>822</v>
       </c>
       <c r="D165">
         <v>6</v>
@@ -5845,6 +7641,9 @@
       <c r="B166" t="s">
         <v>310</v>
       </c>
+      <c r="C166" t="s">
+        <v>814</v>
+      </c>
       <c r="D166">
         <v>16</v>
       </c>
@@ -5861,6 +7660,9 @@
       </c>
       <c r="B167" t="s">
         <v>311</v>
+      </c>
+      <c r="C167" t="s">
+        <v>823</v>
       </c>
       <c r="D167">
         <v>6</v>
@@ -5879,6 +7681,9 @@
       <c r="B168" t="s">
         <v>312</v>
       </c>
+      <c r="C168" t="s">
+        <v>815</v>
+      </c>
       <c r="D168">
         <v>16</v>
       </c>
@@ -5895,6 +7700,9 @@
       </c>
       <c r="B169" t="s">
         <v>313</v>
+      </c>
+      <c r="C169" t="s">
+        <v>824</v>
       </c>
       <c r="D169">
         <v>6</v>
@@ -5913,6 +7721,9 @@
       <c r="B170" t="s">
         <v>314</v>
       </c>
+      <c r="C170" t="s">
+        <v>816</v>
+      </c>
       <c r="D170">
         <v>16</v>
       </c>
@@ -5930,6 +7741,9 @@
       <c r="B171" t="s">
         <v>315</v>
       </c>
+      <c r="C171" t="s">
+        <v>825</v>
+      </c>
       <c r="D171">
         <v>6</v>
       </c>
@@ -6026,6 +7840,9 @@
       </c>
       <c r="B176" t="s">
         <v>320</v>
+      </c>
+      <c r="C176" t="s">
+        <v>817</v>
       </c>
       <c r="D176">
         <v>4</v>
@@ -6044,6 +7861,9 @@
       <c r="B177" t="s">
         <v>321</v>
       </c>
+      <c r="C177" t="s">
+        <v>818</v>
+      </c>
       <c r="D177">
         <v>4</v>
       </c>
@@ -6061,6 +7881,9 @@
       <c r="B179" t="s">
         <v>322</v>
       </c>
+      <c r="C179" t="s">
+        <v>826</v>
+      </c>
       <c r="D179">
         <v>16</v>
       </c>
@@ -6077,6 +7900,9 @@
       </c>
       <c r="B180" t="s">
         <v>323</v>
+      </c>
+      <c r="C180" t="s">
+        <v>835</v>
       </c>
       <c r="D180">
         <v>6</v>
@@ -6095,6 +7921,9 @@
       <c r="B181" t="s">
         <v>324</v>
       </c>
+      <c r="C181" t="s">
+        <v>827</v>
+      </c>
       <c r="D181">
         <v>16</v>
       </c>
@@ -6111,6 +7940,9 @@
       </c>
       <c r="B182" t="s">
         <v>325</v>
+      </c>
+      <c r="C182" t="s">
+        <v>836</v>
       </c>
       <c r="D182">
         <v>6</v>
@@ -6129,6 +7961,9 @@
       <c r="B183" t="s">
         <v>326</v>
       </c>
+      <c r="C183" t="s">
+        <v>828</v>
+      </c>
       <c r="D183">
         <v>16</v>
       </c>
@@ -6145,6 +7980,9 @@
       </c>
       <c r="B184" t="s">
         <v>327</v>
+      </c>
+      <c r="C184" t="s">
+        <v>837</v>
       </c>
       <c r="D184">
         <v>6</v>
@@ -6163,6 +8001,9 @@
       <c r="B185" t="s">
         <v>328</v>
       </c>
+      <c r="C185" t="s">
+        <v>829</v>
+      </c>
       <c r="D185">
         <v>16</v>
       </c>
@@ -6179,6 +8020,9 @@
       </c>
       <c r="B186" t="s">
         <v>329</v>
+      </c>
+      <c r="C186" t="s">
+        <v>838</v>
       </c>
       <c r="D186">
         <v>6</v>
@@ -6197,6 +8041,9 @@
       <c r="B187" t="s">
         <v>330</v>
       </c>
+      <c r="C187" t="s">
+        <v>830</v>
+      </c>
       <c r="D187">
         <v>16</v>
       </c>
@@ -6213,6 +8060,9 @@
       </c>
       <c r="B188" t="s">
         <v>331</v>
+      </c>
+      <c r="C188" t="s">
+        <v>839</v>
       </c>
       <c r="D188">
         <v>6</v>
@@ -6231,6 +8081,9 @@
       <c r="B189" t="s">
         <v>332</v>
       </c>
+      <c r="C189" t="s">
+        <v>831</v>
+      </c>
       <c r="D189">
         <v>16</v>
       </c>
@@ -6247,6 +8100,9 @@
       </c>
       <c r="B190" t="s">
         <v>333</v>
+      </c>
+      <c r="C190" t="s">
+        <v>840</v>
       </c>
       <c r="D190">
         <v>6</v>
@@ -6265,6 +8121,9 @@
       <c r="B191" t="s">
         <v>334</v>
       </c>
+      <c r="C191" t="s">
+        <v>832</v>
+      </c>
       <c r="D191">
         <v>16</v>
       </c>
@@ -6282,6 +8141,9 @@
       <c r="B192" t="s">
         <v>335</v>
       </c>
+      <c r="C192" t="s">
+        <v>841</v>
+      </c>
       <c r="D192">
         <v>6</v>
       </c>
@@ -6378,6 +8240,9 @@
       </c>
       <c r="B197" t="s">
         <v>340</v>
+      </c>
+      <c r="C197" t="s">
+        <v>833</v>
       </c>
       <c r="D197">
         <v>4</v>
@@ -6396,6 +8261,9 @@
       <c r="B198" t="s">
         <v>341</v>
       </c>
+      <c r="C198" t="s">
+        <v>834</v>
+      </c>
       <c r="D198">
         <v>4</v>
       </c>
@@ -6413,6 +8281,9 @@
       <c r="B200" t="s">
         <v>342</v>
       </c>
+      <c r="C200" t="s">
+        <v>842</v>
+      </c>
       <c r="D200">
         <v>16</v>
       </c>
@@ -6429,6 +8300,9 @@
       </c>
       <c r="B201" t="s">
         <v>343</v>
+      </c>
+      <c r="C201" t="s">
+        <v>851</v>
       </c>
       <c r="D201">
         <v>6</v>
@@ -6447,6 +8321,9 @@
       <c r="B202" t="s">
         <v>344</v>
       </c>
+      <c r="C202" t="s">
+        <v>843</v>
+      </c>
       <c r="D202">
         <v>16</v>
       </c>
@@ -6463,6 +8340,9 @@
       </c>
       <c r="B203" t="s">
         <v>345</v>
+      </c>
+      <c r="C203" t="s">
+        <v>852</v>
       </c>
       <c r="D203">
         <v>6</v>
@@ -6481,6 +8361,9 @@
       <c r="B204" t="s">
         <v>346</v>
       </c>
+      <c r="C204" t="s">
+        <v>844</v>
+      </c>
       <c r="D204">
         <v>16</v>
       </c>
@@ -6497,6 +8380,9 @@
       </c>
       <c r="B205" t="s">
         <v>347</v>
+      </c>
+      <c r="C205" t="s">
+        <v>853</v>
       </c>
       <c r="D205">
         <v>6</v>
@@ -6515,6 +8401,9 @@
       <c r="B206" t="s">
         <v>348</v>
       </c>
+      <c r="C206" t="s">
+        <v>845</v>
+      </c>
       <c r="D206">
         <v>16</v>
       </c>
@@ -6531,6 +8420,9 @@
       </c>
       <c r="B207" t="s">
         <v>349</v>
+      </c>
+      <c r="C207" t="s">
+        <v>854</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -6549,6 +8441,9 @@
       <c r="B208" t="s">
         <v>350</v>
       </c>
+      <c r="C208" t="s">
+        <v>846</v>
+      </c>
       <c r="D208">
         <v>16</v>
       </c>
@@ -6565,6 +8460,9 @@
       </c>
       <c r="B209" t="s">
         <v>351</v>
+      </c>
+      <c r="C209" t="s">
+        <v>855</v>
       </c>
       <c r="D209">
         <v>6</v>
@@ -6583,6 +8481,9 @@
       <c r="B210" t="s">
         <v>352</v>
       </c>
+      <c r="C210" t="s">
+        <v>847</v>
+      </c>
       <c r="D210">
         <v>16</v>
       </c>
@@ -6599,6 +8500,9 @@
       </c>
       <c r="B211" t="s">
         <v>353</v>
+      </c>
+      <c r="C211" t="s">
+        <v>856</v>
       </c>
       <c r="D211">
         <v>6</v>
@@ -6617,6 +8521,9 @@
       <c r="B212" t="s">
         <v>354</v>
       </c>
+      <c r="C212" t="s">
+        <v>848</v>
+      </c>
       <c r="D212">
         <v>16</v>
       </c>
@@ -6634,6 +8541,9 @@
       <c r="B213" t="s">
         <v>355</v>
       </c>
+      <c r="C213" t="s">
+        <v>857</v>
+      </c>
       <c r="D213">
         <v>6</v>
       </c>
@@ -6730,6 +8640,9 @@
       </c>
       <c r="B218" t="s">
         <v>360</v>
+      </c>
+      <c r="C218" t="s">
+        <v>849</v>
       </c>
       <c r="D218">
         <v>4</v>
@@ -6748,6 +8661,9 @@
       <c r="B219" t="s">
         <v>361</v>
       </c>
+      <c r="C219" t="s">
+        <v>850</v>
+      </c>
       <c r="D219">
         <v>4</v>
       </c>
@@ -6765,6 +8681,9 @@
       <c r="B221" t="s">
         <v>362</v>
       </c>
+      <c r="C221" t="s">
+        <v>858</v>
+      </c>
       <c r="D221">
         <v>16</v>
       </c>
@@ -6781,6 +8700,9 @@
       </c>
       <c r="B222" t="s">
         <v>363</v>
+      </c>
+      <c r="C222" t="s">
+        <v>867</v>
       </c>
       <c r="D222">
         <v>6</v>
@@ -6799,6 +8721,9 @@
       <c r="B223" t="s">
         <v>364</v>
       </c>
+      <c r="C223" t="s">
+        <v>859</v>
+      </c>
       <c r="D223">
         <v>16</v>
       </c>
@@ -6815,6 +8740,9 @@
       </c>
       <c r="B224" t="s">
         <v>365</v>
+      </c>
+      <c r="C224" t="s">
+        <v>868</v>
       </c>
       <c r="D224">
         <v>6</v>
@@ -6833,6 +8761,9 @@
       <c r="B225" t="s">
         <v>366</v>
       </c>
+      <c r="C225" t="s">
+        <v>860</v>
+      </c>
       <c r="D225">
         <v>16</v>
       </c>
@@ -6849,6 +8780,9 @@
       </c>
       <c r="B226" t="s">
         <v>367</v>
+      </c>
+      <c r="C226" t="s">
+        <v>869</v>
       </c>
       <c r="D226">
         <v>6</v>
@@ -6867,6 +8801,9 @@
       <c r="B227" t="s">
         <v>368</v>
       </c>
+      <c r="C227" t="s">
+        <v>861</v>
+      </c>
       <c r="D227">
         <v>16</v>
       </c>
@@ -6883,6 +8820,9 @@
       </c>
       <c r="B228" t="s">
         <v>369</v>
+      </c>
+      <c r="C228" t="s">
+        <v>870</v>
       </c>
       <c r="D228">
         <v>6</v>
@@ -6901,6 +8841,9 @@
       <c r="B229" t="s">
         <v>370</v>
       </c>
+      <c r="C229" t="s">
+        <v>862</v>
+      </c>
       <c r="D229">
         <v>16</v>
       </c>
@@ -6917,6 +8860,9 @@
       </c>
       <c r="B230" t="s">
         <v>371</v>
+      </c>
+      <c r="C230" t="s">
+        <v>871</v>
       </c>
       <c r="D230">
         <v>6</v>
@@ -6935,6 +8881,9 @@
       <c r="B231" t="s">
         <v>372</v>
       </c>
+      <c r="C231" t="s">
+        <v>863</v>
+      </c>
       <c r="D231">
         <v>16</v>
       </c>
@@ -6951,6 +8900,9 @@
       </c>
       <c r="B232" t="s">
         <v>373</v>
+      </c>
+      <c r="C232" t="s">
+        <v>872</v>
       </c>
       <c r="D232">
         <v>6</v>
@@ -6969,6 +8921,9 @@
       <c r="B233" t="s">
         <v>374</v>
       </c>
+      <c r="C233" t="s">
+        <v>864</v>
+      </c>
       <c r="D233">
         <v>16</v>
       </c>
@@ -6986,6 +8941,9 @@
       <c r="B234" t="s">
         <v>375</v>
       </c>
+      <c r="C234" t="s">
+        <v>873</v>
+      </c>
       <c r="D234">
         <v>6</v>
       </c>
@@ -7082,6 +9040,9 @@
       </c>
       <c r="B239" t="s">
         <v>380</v>
+      </c>
+      <c r="C239" t="s">
+        <v>865</v>
       </c>
       <c r="D239">
         <v>4</v>
@@ -7100,6 +9061,9 @@
       <c r="B240" t="s">
         <v>381</v>
       </c>
+      <c r="C240" t="s">
+        <v>866</v>
+      </c>
       <c r="D240">
         <v>4</v>
       </c>
@@ -7117,6 +9081,9 @@
       <c r="B242" t="s">
         <v>382</v>
       </c>
+      <c r="C242" t="s">
+        <v>874</v>
+      </c>
       <c r="D242">
         <v>16</v>
       </c>
@@ -7133,6 +9100,9 @@
       </c>
       <c r="B243" t="s">
         <v>383</v>
+      </c>
+      <c r="C243" t="s">
+        <v>883</v>
       </c>
       <c r="D243">
         <v>6</v>
@@ -7151,6 +9121,9 @@
       <c r="B244" t="s">
         <v>384</v>
       </c>
+      <c r="C244" t="s">
+        <v>875</v>
+      </c>
       <c r="D244">
         <v>16</v>
       </c>
@@ -7167,6 +9140,9 @@
       </c>
       <c r="B245" t="s">
         <v>385</v>
+      </c>
+      <c r="C245" t="s">
+        <v>884</v>
       </c>
       <c r="D245">
         <v>6</v>
@@ -7185,6 +9161,9 @@
       <c r="B246" t="s">
         <v>386</v>
       </c>
+      <c r="C246" t="s">
+        <v>876</v>
+      </c>
       <c r="D246">
         <v>16</v>
       </c>
@@ -7201,6 +9180,9 @@
       </c>
       <c r="B247" t="s">
         <v>387</v>
+      </c>
+      <c r="C247" t="s">
+        <v>885</v>
       </c>
       <c r="D247">
         <v>6</v>
@@ -7219,6 +9201,9 @@
       <c r="B248" t="s">
         <v>388</v>
       </c>
+      <c r="C248" t="s">
+        <v>877</v>
+      </c>
       <c r="D248">
         <v>16</v>
       </c>
@@ -7235,6 +9220,9 @@
       </c>
       <c r="B249" t="s">
         <v>389</v>
+      </c>
+      <c r="C249" t="s">
+        <v>886</v>
       </c>
       <c r="D249">
         <v>6</v>
@@ -7253,6 +9241,9 @@
       <c r="B250" t="s">
         <v>390</v>
       </c>
+      <c r="C250" t="s">
+        <v>878</v>
+      </c>
       <c r="D250">
         <v>16</v>
       </c>
@@ -7269,6 +9260,9 @@
       </c>
       <c r="B251" t="s">
         <v>391</v>
+      </c>
+      <c r="C251" t="s">
+        <v>887</v>
       </c>
       <c r="D251">
         <v>6</v>
@@ -7287,6 +9281,9 @@
       <c r="B252" t="s">
         <v>392</v>
       </c>
+      <c r="C252" t="s">
+        <v>879</v>
+      </c>
       <c r="D252">
         <v>16</v>
       </c>
@@ -7303,6 +9300,9 @@
       </c>
       <c r="B253" t="s">
         <v>393</v>
+      </c>
+      <c r="C253" t="s">
+        <v>888</v>
       </c>
       <c r="D253">
         <v>6</v>
@@ -7321,6 +9321,9 @@
       <c r="B254" t="s">
         <v>394</v>
       </c>
+      <c r="C254" t="s">
+        <v>880</v>
+      </c>
       <c r="D254">
         <v>16</v>
       </c>
@@ -7338,6 +9341,9 @@
       <c r="B255" t="s">
         <v>395</v>
       </c>
+      <c r="C255" t="s">
+        <v>889</v>
+      </c>
       <c r="D255">
         <v>6</v>
       </c>
@@ -7434,6 +9440,9 @@
       </c>
       <c r="B260" t="s">
         <v>400</v>
+      </c>
+      <c r="C260" t="s">
+        <v>881</v>
       </c>
       <c r="D260">
         <v>4</v>
@@ -7452,6 +9461,9 @@
       <c r="B261" t="s">
         <v>401</v>
       </c>
+      <c r="C261" t="s">
+        <v>882</v>
+      </c>
       <c r="D261">
         <v>4</v>
       </c>
@@ -7469,6 +9481,9 @@
       <c r="B263" t="s">
         <v>404</v>
       </c>
+      <c r="C263" t="s">
+        <v>890</v>
+      </c>
       <c r="D263">
         <v>16</v>
       </c>
@@ -7485,6 +9500,9 @@
       </c>
       <c r="B264" t="s">
         <v>405</v>
+      </c>
+      <c r="C264" t="s">
+        <v>899</v>
       </c>
       <c r="D264">
         <v>6</v>
@@ -7503,6 +9521,9 @@
       <c r="B265" t="s">
         <v>406</v>
       </c>
+      <c r="C265" t="s">
+        <v>891</v>
+      </c>
       <c r="D265">
         <v>16</v>
       </c>
@@ -7519,6 +9540,9 @@
       </c>
       <c r="B266" t="s">
         <v>407</v>
+      </c>
+      <c r="C266" t="s">
+        <v>900</v>
       </c>
       <c r="D266">
         <v>6</v>
@@ -7537,6 +9561,9 @@
       <c r="B267" t="s">
         <v>408</v>
       </c>
+      <c r="C267" t="s">
+        <v>892</v>
+      </c>
       <c r="D267">
         <v>16</v>
       </c>
@@ -7553,6 +9580,9 @@
       </c>
       <c r="B268" t="s">
         <v>409</v>
+      </c>
+      <c r="C268" t="s">
+        <v>901</v>
       </c>
       <c r="D268">
         <v>6</v>
@@ -7571,6 +9601,9 @@
       <c r="B269" t="s">
         <v>410</v>
       </c>
+      <c r="C269" t="s">
+        <v>893</v>
+      </c>
       <c r="D269">
         <v>16</v>
       </c>
@@ -7587,6 +9620,9 @@
       </c>
       <c r="B270" t="s">
         <v>411</v>
+      </c>
+      <c r="C270" t="s">
+        <v>902</v>
       </c>
       <c r="D270">
         <v>6</v>
@@ -7605,6 +9641,9 @@
       <c r="B271" t="s">
         <v>412</v>
       </c>
+      <c r="C271" t="s">
+        <v>894</v>
+      </c>
       <c r="D271">
         <v>16</v>
       </c>
@@ -7621,6 +9660,9 @@
       </c>
       <c r="B272" t="s">
         <v>413</v>
+      </c>
+      <c r="C272" t="s">
+        <v>903</v>
       </c>
       <c r="D272">
         <v>6</v>
@@ -7639,6 +9681,9 @@
       <c r="B273" t="s">
         <v>414</v>
       </c>
+      <c r="C273" t="s">
+        <v>895</v>
+      </c>
       <c r="D273">
         <v>16</v>
       </c>
@@ -7655,6 +9700,9 @@
       </c>
       <c r="B274" t="s">
         <v>415</v>
+      </c>
+      <c r="C274" t="s">
+        <v>904</v>
       </c>
       <c r="D274">
         <v>6</v>
@@ -7673,6 +9721,9 @@
       <c r="B275" t="s">
         <v>416</v>
       </c>
+      <c r="C275" t="s">
+        <v>896</v>
+      </c>
       <c r="D275">
         <v>16</v>
       </c>
@@ -7690,6 +9741,9 @@
       <c r="B276" t="s">
         <v>417</v>
       </c>
+      <c r="C276" t="s">
+        <v>905</v>
+      </c>
       <c r="D276">
         <v>6</v>
       </c>
@@ -7786,6 +9840,9 @@
       </c>
       <c r="B281" t="s">
         <v>422</v>
+      </c>
+      <c r="C281" t="s">
+        <v>897</v>
       </c>
       <c r="D281">
         <v>4</v>
@@ -7804,6 +9861,9 @@
       <c r="B282" t="s">
         <v>423</v>
       </c>
+      <c r="C282" t="s">
+        <v>898</v>
+      </c>
       <c r="D282">
         <v>4</v>
       </c>
@@ -7821,6 +9881,9 @@
       <c r="B284" t="s">
         <v>424</v>
       </c>
+      <c r="C284" t="s">
+        <v>906</v>
+      </c>
       <c r="D284">
         <v>16</v>
       </c>
@@ -7837,6 +9900,9 @@
       </c>
       <c r="B285" t="s">
         <v>425</v>
+      </c>
+      <c r="C285" t="s">
+        <v>915</v>
       </c>
       <c r="D285">
         <v>6</v>
@@ -7855,6 +9921,9 @@
       <c r="B286" t="s">
         <v>426</v>
       </c>
+      <c r="C286" t="s">
+        <v>907</v>
+      </c>
       <c r="D286">
         <v>16</v>
       </c>
@@ -7871,6 +9940,9 @@
       </c>
       <c r="B287" t="s">
         <v>427</v>
+      </c>
+      <c r="C287" t="s">
+        <v>916</v>
       </c>
       <c r="D287">
         <v>6</v>
@@ -7889,6 +9961,9 @@
       <c r="B288" t="s">
         <v>428</v>
       </c>
+      <c r="C288" t="s">
+        <v>908</v>
+      </c>
       <c r="D288">
         <v>16</v>
       </c>
@@ -7905,6 +9980,9 @@
       </c>
       <c r="B289" t="s">
         <v>429</v>
+      </c>
+      <c r="C289" t="s">
+        <v>917</v>
       </c>
       <c r="D289">
         <v>6</v>
@@ -7923,6 +10001,9 @@
       <c r="B290" t="s">
         <v>430</v>
       </c>
+      <c r="C290" t="s">
+        <v>909</v>
+      </c>
       <c r="D290">
         <v>16</v>
       </c>
@@ -7939,6 +10020,9 @@
       </c>
       <c r="B291" t="s">
         <v>431</v>
+      </c>
+      <c r="C291" t="s">
+        <v>918</v>
       </c>
       <c r="D291">
         <v>6</v>
@@ -7957,6 +10041,9 @@
       <c r="B292" t="s">
         <v>432</v>
       </c>
+      <c r="C292" t="s">
+        <v>910</v>
+      </c>
       <c r="D292">
         <v>16</v>
       </c>
@@ -7973,6 +10060,9 @@
       </c>
       <c r="B293" t="s">
         <v>433</v>
+      </c>
+      <c r="C293" t="s">
+        <v>919</v>
       </c>
       <c r="D293">
         <v>6</v>
@@ -7991,6 +10081,9 @@
       <c r="B294" t="s">
         <v>434</v>
       </c>
+      <c r="C294" t="s">
+        <v>911</v>
+      </c>
       <c r="D294">
         <v>16</v>
       </c>
@@ -8007,6 +10100,9 @@
       </c>
       <c r="B295" t="s">
         <v>435</v>
+      </c>
+      <c r="C295" t="s">
+        <v>920</v>
       </c>
       <c r="D295">
         <v>6</v>
@@ -8025,6 +10121,9 @@
       <c r="B296" t="s">
         <v>436</v>
       </c>
+      <c r="C296" t="s">
+        <v>914</v>
+      </c>
       <c r="D296">
         <v>16</v>
       </c>
@@ -8042,6 +10141,9 @@
       <c r="B297" t="s">
         <v>437</v>
       </c>
+      <c r="C297" t="s">
+        <v>921</v>
+      </c>
       <c r="D297">
         <v>6</v>
       </c>
@@ -8138,6 +10240,9 @@
       </c>
       <c r="B302" t="s">
         <v>442</v>
+      </c>
+      <c r="C302" t="s">
+        <v>912</v>
       </c>
       <c r="D302">
         <v>4</v>
@@ -8156,6 +10261,9 @@
       <c r="B303" t="s">
         <v>443</v>
       </c>
+      <c r="C303" t="s">
+        <v>913</v>
+      </c>
       <c r="D303">
         <v>4</v>
       </c>
@@ -8173,6 +10281,9 @@
       <c r="B305" t="s">
         <v>444</v>
       </c>
+      <c r="C305" t="s">
+        <v>922</v>
+      </c>
       <c r="D305">
         <v>16</v>
       </c>
@@ -8189,6 +10300,9 @@
       </c>
       <c r="B306" t="s">
         <v>445</v>
+      </c>
+      <c r="C306" t="s">
+        <v>931</v>
       </c>
       <c r="D306">
         <v>6</v>
@@ -8207,6 +10321,9 @@
       <c r="B307" t="s">
         <v>446</v>
       </c>
+      <c r="C307" t="s">
+        <v>923</v>
+      </c>
       <c r="D307">
         <v>16</v>
       </c>
@@ -8223,6 +10340,9 @@
       </c>
       <c r="B308" t="s">
         <v>447</v>
+      </c>
+      <c r="C308" t="s">
+        <v>932</v>
       </c>
       <c r="D308">
         <v>6</v>
@@ -8241,6 +10361,9 @@
       <c r="B309" t="s">
         <v>448</v>
       </c>
+      <c r="C309" t="s">
+        <v>924</v>
+      </c>
       <c r="D309">
         <v>16</v>
       </c>
@@ -8257,6 +10380,9 @@
       </c>
       <c r="B310" t="s">
         <v>449</v>
+      </c>
+      <c r="C310" t="s">
+        <v>933</v>
       </c>
       <c r="D310">
         <v>6</v>
@@ -8275,6 +10401,9 @@
       <c r="B311" t="s">
         <v>450</v>
       </c>
+      <c r="C311" t="s">
+        <v>925</v>
+      </c>
       <c r="D311">
         <v>16</v>
       </c>
@@ -8291,6 +10420,9 @@
       </c>
       <c r="B312" t="s">
         <v>451</v>
+      </c>
+      <c r="C312" t="s">
+        <v>934</v>
       </c>
       <c r="D312">
         <v>6</v>
@@ -8309,6 +10441,9 @@
       <c r="B313" t="s">
         <v>452</v>
       </c>
+      <c r="C313" t="s">
+        <v>926</v>
+      </c>
       <c r="D313">
         <v>16</v>
       </c>
@@ -8325,6 +10460,9 @@
       </c>
       <c r="B314" t="s">
         <v>453</v>
+      </c>
+      <c r="C314" t="s">
+        <v>935</v>
       </c>
       <c r="D314">
         <v>6</v>
@@ -8343,6 +10481,9 @@
       <c r="B315" t="s">
         <v>454</v>
       </c>
+      <c r="C315" t="s">
+        <v>927</v>
+      </c>
       <c r="D315">
         <v>16</v>
       </c>
@@ -8359,6 +10500,9 @@
       </c>
       <c r="B316" t="s">
         <v>455</v>
+      </c>
+      <c r="C316" t="s">
+        <v>936</v>
       </c>
       <c r="D316">
         <v>6</v>
@@ -8377,6 +10521,9 @@
       <c r="B317" t="s">
         <v>456</v>
       </c>
+      <c r="C317" t="s">
+        <v>928</v>
+      </c>
       <c r="D317">
         <v>16</v>
       </c>
@@ -8394,6 +10541,9 @@
       <c r="B318" t="s">
         <v>457</v>
       </c>
+      <c r="C318" t="s">
+        <v>937</v>
+      </c>
       <c r="D318">
         <v>6</v>
       </c>
@@ -8490,6 +10640,9 @@
       </c>
       <c r="B323" t="s">
         <v>462</v>
+      </c>
+      <c r="C323" t="s">
+        <v>929</v>
       </c>
       <c r="D323">
         <v>4</v>
@@ -8508,6 +10661,9 @@
       <c r="B324" t="s">
         <v>463</v>
       </c>
+      <c r="C324" t="s">
+        <v>930</v>
+      </c>
       <c r="D324">
         <v>4</v>
       </c>
@@ -8525,6 +10681,9 @@
       <c r="B326" t="s">
         <v>464</v>
       </c>
+      <c r="C326" t="s">
+        <v>938</v>
+      </c>
       <c r="D326">
         <v>16</v>
       </c>
@@ -8541,6 +10700,9 @@
       </c>
       <c r="B327" t="s">
         <v>465</v>
+      </c>
+      <c r="C327" t="s">
+        <v>947</v>
       </c>
       <c r="D327">
         <v>6</v>
@@ -8559,6 +10721,9 @@
       <c r="B328" t="s">
         <v>466</v>
       </c>
+      <c r="C328" t="s">
+        <v>939</v>
+      </c>
       <c r="D328">
         <v>16</v>
       </c>
@@ -8575,6 +10740,9 @@
       </c>
       <c r="B329" t="s">
         <v>467</v>
+      </c>
+      <c r="C329" t="s">
+        <v>948</v>
       </c>
       <c r="D329">
         <v>6</v>
@@ -8593,6 +10761,9 @@
       <c r="B330" t="s">
         <v>468</v>
       </c>
+      <c r="C330" t="s">
+        <v>940</v>
+      </c>
       <c r="D330">
         <v>16</v>
       </c>
@@ -8609,6 +10780,9 @@
       </c>
       <c r="B331" t="s">
         <v>469</v>
+      </c>
+      <c r="C331" t="s">
+        <v>949</v>
       </c>
       <c r="D331">
         <v>6</v>
@@ -8627,6 +10801,9 @@
       <c r="B332" t="s">
         <v>470</v>
       </c>
+      <c r="C332" t="s">
+        <v>941</v>
+      </c>
       <c r="D332">
         <v>16</v>
       </c>
@@ -8643,6 +10820,9 @@
       </c>
       <c r="B333" t="s">
         <v>471</v>
+      </c>
+      <c r="C333" t="s">
+        <v>950</v>
       </c>
       <c r="D333">
         <v>6</v>
@@ -8661,6 +10841,9 @@
       <c r="B334" t="s">
         <v>472</v>
       </c>
+      <c r="C334" t="s">
+        <v>942</v>
+      </c>
       <c r="D334">
         <v>16</v>
       </c>
@@ -8677,6 +10860,9 @@
       </c>
       <c r="B335" t="s">
         <v>473</v>
+      </c>
+      <c r="C335" t="s">
+        <v>951</v>
       </c>
       <c r="D335">
         <v>6</v>
@@ -8695,6 +10881,9 @@
       <c r="B336" t="s">
         <v>474</v>
       </c>
+      <c r="C336" t="s">
+        <v>943</v>
+      </c>
       <c r="D336">
         <v>16</v>
       </c>
@@ -8711,6 +10900,9 @@
       </c>
       <c r="B337" t="s">
         <v>475</v>
+      </c>
+      <c r="C337" t="s">
+        <v>952</v>
       </c>
       <c r="D337">
         <v>6</v>
@@ -8729,6 +10921,9 @@
       <c r="B338" t="s">
         <v>476</v>
       </c>
+      <c r="C338" t="s">
+        <v>944</v>
+      </c>
       <c r="D338">
         <v>16</v>
       </c>
@@ -8746,6 +10941,9 @@
       <c r="B339" t="s">
         <v>477</v>
       </c>
+      <c r="C339" t="s">
+        <v>953</v>
+      </c>
       <c r="D339">
         <v>6</v>
       </c>
@@ -8842,6 +11040,9 @@
       </c>
       <c r="B344" t="s">
         <v>482</v>
+      </c>
+      <c r="C344" t="s">
+        <v>945</v>
       </c>
       <c r="D344">
         <v>4</v>
@@ -8860,6 +11061,9 @@
       <c r="B345" t="s">
         <v>483</v>
       </c>
+      <c r="C345" t="s">
+        <v>946</v>
+      </c>
       <c r="D345">
         <v>4</v>
       </c>
@@ -8917,6 +11121,12 @@
       <c r="B350" t="s">
         <v>533</v>
       </c>
+      <c r="C350" t="s">
+        <v>954</v>
+      </c>
+      <c r="D350">
+        <v>32</v>
+      </c>
       <c r="E350" t="s">
         <v>534</v>
       </c>
@@ -8931,6 +11141,12 @@
       <c r="B351" t="s">
         <v>535</v>
       </c>
+      <c r="C351" t="s">
+        <v>955</v>
+      </c>
+      <c r="D351">
+        <v>32</v>
+      </c>
       <c r="E351" t="s">
         <v>536</v>
       </c>
@@ -8945,6 +11161,12 @@
       <c r="B352" t="s">
         <v>537</v>
       </c>
+      <c r="C352" t="s">
+        <v>956</v>
+      </c>
+      <c r="D352">
+        <v>10</v>
+      </c>
       <c r="E352" t="s">
         <v>538</v>
       </c>
@@ -9492,264 +11714,1824 @@
         <v>40</v>
       </c>
     </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>661</v>
+      </c>
+      <c r="B389" t="s">
+        <v>957</v>
+      </c>
+      <c r="C389" t="s">
+        <v>968</v>
+      </c>
+      <c r="D389">
+        <v>10</v>
+      </c>
+      <c r="E389" t="s">
+        <v>958</v>
+      </c>
+      <c r="F389">
+        <v>40</v>
+      </c>
+    </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="B390" t="s">
-        <v>620</v>
+        <v>959</v>
       </c>
       <c r="C390" t="s">
-        <v>621</v>
+        <v>969</v>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E390" t="s">
-        <v>622</v>
+        <v>958</v>
       </c>
       <c r="F390">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="B391" t="s">
-        <v>623</v>
+        <v>960</v>
       </c>
       <c r="C391" t="s">
-        <v>624</v>
+        <v>970</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E391" t="s">
-        <v>625</v>
+        <v>958</v>
       </c>
       <c r="F391">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="B392" t="s">
-        <v>626</v>
+        <v>961</v>
       </c>
       <c r="C392" t="s">
-        <v>628</v>
+        <v>971</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E392" t="s">
-        <v>630</v>
+        <v>958</v>
       </c>
       <c r="F392">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="B393" t="s">
-        <v>627</v>
+        <v>962</v>
       </c>
       <c r="C393" t="s">
-        <v>629</v>
+        <v>972</v>
       </c>
       <c r="D393">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E393" t="s">
-        <v>631</v>
+        <v>958</v>
       </c>
       <c r="F393">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
+        <v>661</v>
+      </c>
+      <c r="B394" t="s">
+        <v>963</v>
+      </c>
+      <c r="C394" t="s">
+        <v>973</v>
+      </c>
+      <c r="D394">
+        <v>10</v>
+      </c>
+      <c r="E394" t="s">
+        <v>958</v>
+      </c>
+      <c r="F394">
+        <v>40</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="B395" t="s">
-        <v>632</v>
+        <v>964</v>
       </c>
       <c r="C395" t="s">
-        <v>633</v>
+        <v>974</v>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E395" t="s">
-        <v>634</v>
+        <v>958</v>
       </c>
       <c r="F395">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="B396" t="s">
-        <v>635</v>
+        <v>965</v>
       </c>
       <c r="C396" t="s">
-        <v>633</v>
+        <v>975</v>
       </c>
       <c r="D396">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E396" t="s">
-        <v>643</v>
+        <v>958</v>
       </c>
       <c r="F396">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="B397" t="s">
-        <v>636</v>
+        <v>966</v>
       </c>
       <c r="C397" t="s">
-        <v>633</v>
+        <v>976</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E397" t="s">
-        <v>644</v>
+        <v>958</v>
       </c>
       <c r="F397">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="B398" t="s">
-        <v>637</v>
+        <v>967</v>
       </c>
       <c r="C398" t="s">
-        <v>633</v>
+        <v>977</v>
       </c>
       <c r="D398">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E398" t="s">
-        <v>645</v>
+        <v>958</v>
       </c>
       <c r="F398">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A399" t="s">
-        <v>591</v>
-      </c>
-      <c r="B399" t="s">
-        <v>638</v>
-      </c>
-      <c r="C399" t="s">
-        <v>633</v>
-      </c>
-      <c r="D399">
-        <v>1</v>
-      </c>
-      <c r="E399" t="s">
-        <v>646</v>
-      </c>
-      <c r="F399">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="B400" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="C400" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D400">
         <v>1</v>
       </c>
       <c r="E400" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="F400">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="B401" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="C401" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D401">
         <v>1</v>
       </c>
       <c r="E401" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="F401">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="B402" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C402" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D402">
         <v>1</v>
       </c>
       <c r="E402" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="F402">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
+        <v>619</v>
+      </c>
+      <c r="B403" t="s">
+        <v>627</v>
+      </c>
+      <c r="C403" t="s">
+        <v>629</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403" t="s">
+        <v>631</v>
+      </c>
+      <c r="F403">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>661</v>
+      </c>
+      <c r="B404" t="s">
+        <v>978</v>
+      </c>
+      <c r="C404" t="s">
+        <v>979</v>
+      </c>
+      <c r="D404">
+        <v>8</v>
+      </c>
+      <c r="E404" t="s">
+        <v>980</v>
+      </c>
+      <c r="F404">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>661</v>
+      </c>
+      <c r="B405" t="s">
+        <v>981</v>
+      </c>
+      <c r="C405" t="s">
+        <v>984</v>
+      </c>
+      <c r="D405">
+        <v>32</v>
+      </c>
+      <c r="E405" t="s">
+        <v>980</v>
+      </c>
+      <c r="F405">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
+        <v>661</v>
+      </c>
+      <c r="B406" t="s">
+        <v>982</v>
+      </c>
+      <c r="C406" t="s">
+        <v>985</v>
+      </c>
+      <c r="D406">
+        <v>32</v>
+      </c>
+      <c r="E406" t="s">
+        <v>980</v>
+      </c>
+      <c r="F406">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>661</v>
+      </c>
+      <c r="B407" t="s">
+        <v>983</v>
+      </c>
+      <c r="C407" t="s">
+        <v>986</v>
+      </c>
+      <c r="D407">
+        <v>32</v>
+      </c>
+      <c r="E407" t="s">
+        <v>980</v>
+      </c>
+      <c r="F407">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
         <v>591</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B409" t="s">
+        <v>987</v>
+      </c>
+      <c r="C409" t="s">
+        <v>993</v>
+      </c>
+      <c r="D409">
+        <v>4</v>
+      </c>
+      <c r="E409" t="s">
+        <v>632</v>
+      </c>
+      <c r="F409">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>591</v>
+      </c>
+      <c r="B410" t="s">
+        <v>988</v>
+      </c>
+      <c r="C410" t="s">
+        <v>994</v>
+      </c>
+      <c r="D410">
+        <v>2</v>
+      </c>
+      <c r="E410" t="s">
+        <v>636</v>
+      </c>
+      <c r="F410">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>591</v>
+      </c>
+      <c r="B411" t="s">
+        <v>989</v>
+      </c>
+      <c r="C411" t="s">
+        <v>995</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+      <c r="E411" t="s">
+        <v>637</v>
+      </c>
+      <c r="F411">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>591</v>
+      </c>
+      <c r="B412" t="s">
+        <v>990</v>
+      </c>
+      <c r="C412" t="s">
+        <v>996</v>
+      </c>
+      <c r="D412">
+        <v>2</v>
+      </c>
+      <c r="E412" t="s">
+        <v>638</v>
+      </c>
+      <c r="F412">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>591</v>
+      </c>
+      <c r="B413" t="s">
+        <v>991</v>
+      </c>
+      <c r="C413" t="s">
+        <v>997</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+      <c r="E413" t="s">
+        <v>639</v>
+      </c>
+      <c r="F413">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>591</v>
+      </c>
+      <c r="B414" t="s">
+        <v>992</v>
+      </c>
+      <c r="C414" t="s">
+        <v>998</v>
+      </c>
+      <c r="D414">
+        <v>2</v>
+      </c>
+      <c r="E414" t="s">
+        <v>640</v>
+      </c>
+      <c r="F414">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>591</v>
+      </c>
+      <c r="B415" t="s">
+        <v>633</v>
+      </c>
+      <c r="C415" t="s">
+        <v>644</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415" t="s">
+        <v>641</v>
+      </c>
+      <c r="F415">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>591</v>
+      </c>
+      <c r="B416" t="s">
+        <v>634</v>
+      </c>
+      <c r="C416" t="s">
+        <v>645</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416" t="s">
         <v>642</v>
       </c>
-      <c r="C403" t="s">
-        <v>633</v>
-      </c>
-      <c r="D403">
-        <v>1</v>
-      </c>
-      <c r="E403" t="s">
+      <c r="F416">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>591</v>
+      </c>
+      <c r="B417" t="s">
+        <v>635</v>
+      </c>
+      <c r="C417" t="s">
+        <v>646</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417" t="s">
+        <v>643</v>
+      </c>
+      <c r="F417">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>647</v>
+      </c>
+      <c r="B419" t="s">
+        <v>648</v>
+      </c>
+      <c r="C419" t="s">
+        <v>649</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419" t="s">
         <v>650</v>
       </c>
-      <c r="F403">
+      <c r="F419">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>647</v>
+      </c>
+      <c r="B420" t="s">
+        <v>651</v>
+      </c>
+      <c r="C420" t="s">
+        <v>652</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420" t="s">
+        <v>653</v>
+      </c>
+      <c r="F420">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>647</v>
+      </c>
+      <c r="B421" t="s">
+        <v>654</v>
+      </c>
+      <c r="C421" t="s">
+        <v>655</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421" t="s">
+        <v>656</v>
+      </c>
+      <c r="F421">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>999</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D422">
+        <v>6</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F422">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>999</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D423">
+        <v>6</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F423">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>657</v>
+      </c>
+      <c r="B425" t="s">
+        <v>658</v>
+      </c>
+      <c r="C425" t="s">
+        <v>659</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425" t="s">
+        <v>660</v>
+      </c>
+      <c r="F425">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>661</v>
+      </c>
+      <c r="B426" t="s">
+        <v>662</v>
+      </c>
+      <c r="C426" t="s">
+        <v>663</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426" t="s">
+        <v>664</v>
+      </c>
+      <c r="F426">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>999</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D427">
+        <v>32</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F427">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>999</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D428">
+        <v>32</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F428">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>657</v>
+      </c>
+      <c r="B430" t="s">
+        <v>665</v>
+      </c>
+      <c r="C430" t="s">
+        <v>666</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430" t="s">
+        <v>667</v>
+      </c>
+      <c r="F430">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>657</v>
+      </c>
+      <c r="B431" t="s">
+        <v>668</v>
+      </c>
+      <c r="C431" t="s">
+        <v>674</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431" t="s">
+        <v>683</v>
+      </c>
+      <c r="F431">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>657</v>
+      </c>
+      <c r="B432" t="s">
+        <v>669</v>
+      </c>
+      <c r="C432" t="s">
+        <v>675</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432" t="s">
+        <v>684</v>
+      </c>
+      <c r="F432">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>657</v>
+      </c>
+      <c r="B433" t="s">
+        <v>670</v>
+      </c>
+      <c r="C433" t="s">
+        <v>676</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433" t="s">
+        <v>685</v>
+      </c>
+      <c r="F433">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>657</v>
+      </c>
+      <c r="B434" t="s">
+        <v>671</v>
+      </c>
+      <c r="C434" t="s">
+        <v>677</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434" t="s">
+        <v>686</v>
+      </c>
+      <c r="F434">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>657</v>
+      </c>
+      <c r="B435" t="s">
+        <v>672</v>
+      </c>
+      <c r="C435" t="s">
+        <v>678</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435" t="s">
+        <v>687</v>
+      </c>
+      <c r="F435">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>657</v>
+      </c>
+      <c r="B436" t="s">
+        <v>673</v>
+      </c>
+      <c r="C436" t="s">
+        <v>679</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436" t="s">
+        <v>688</v>
+      </c>
+      <c r="F436">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>657</v>
+      </c>
+      <c r="B438" t="s">
+        <v>680</v>
+      </c>
+      <c r="C438" t="s">
+        <v>681</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438" t="s">
+        <v>682</v>
+      </c>
+      <c r="F438">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>657</v>
+      </c>
+      <c r="B439" t="s">
+        <v>689</v>
+      </c>
+      <c r="C439" t="s">
+        <v>702</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439" t="s">
+        <v>682</v>
+      </c>
+      <c r="F439">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>657</v>
+      </c>
+      <c r="B440" t="s">
+        <v>690</v>
+      </c>
+      <c r="C440" t="s">
+        <v>703</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440" t="s">
+        <v>682</v>
+      </c>
+      <c r="F440">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>657</v>
+      </c>
+      <c r="B441" t="s">
+        <v>691</v>
+      </c>
+      <c r="C441" t="s">
+        <v>704</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441" t="s">
+        <v>682</v>
+      </c>
+      <c r="F441">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>657</v>
+      </c>
+      <c r="B442" t="s">
+        <v>692</v>
+      </c>
+      <c r="C442" t="s">
+        <v>705</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442" t="s">
+        <v>682</v>
+      </c>
+      <c r="F442">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>657</v>
+      </c>
+      <c r="B443" t="s">
+        <v>693</v>
+      </c>
+      <c r="C443" t="s">
+        <v>706</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443" t="s">
+        <v>682</v>
+      </c>
+      <c r="F443">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>657</v>
+      </c>
+      <c r="B444" t="s">
+        <v>694</v>
+      </c>
+      <c r="C444" t="s">
+        <v>707</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444" t="s">
+        <v>682</v>
+      </c>
+      <c r="F444">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>657</v>
+      </c>
+      <c r="B445" t="s">
+        <v>695</v>
+      </c>
+      <c r="C445" t="s">
+        <v>708</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445" t="s">
+        <v>682</v>
+      </c>
+      <c r="F445">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>657</v>
+      </c>
+      <c r="B446" t="s">
+        <v>696</v>
+      </c>
+      <c r="C446" t="s">
+        <v>709</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446" t="s">
+        <v>682</v>
+      </c>
+      <c r="F446">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>657</v>
+      </c>
+      <c r="B447" t="s">
+        <v>697</v>
+      </c>
+      <c r="C447" t="s">
+        <v>710</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447" t="s">
+        <v>682</v>
+      </c>
+      <c r="F447">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>657</v>
+      </c>
+      <c r="B448" t="s">
+        <v>698</v>
+      </c>
+      <c r="C448" t="s">
+        <v>711</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448" t="s">
+        <v>682</v>
+      </c>
+      <c r="F448">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>657</v>
+      </c>
+      <c r="B449" t="s">
+        <v>699</v>
+      </c>
+      <c r="C449" t="s">
+        <v>712</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449" t="s">
+        <v>682</v>
+      </c>
+      <c r="F449">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>657</v>
+      </c>
+      <c r="B450" t="s">
+        <v>700</v>
+      </c>
+      <c r="C450" t="s">
+        <v>713</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450" t="s">
+        <v>715</v>
+      </c>
+      <c r="F450">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>657</v>
+      </c>
+      <c r="B451" t="s">
+        <v>701</v>
+      </c>
+      <c r="C451" t="s">
+        <v>714</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451" t="s">
+        <v>716</v>
+      </c>
+      <c r="F451">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>999</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D452">
+        <v>16</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F452">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>999</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D453">
+        <v>16</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F453">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>999</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D454">
+        <v>16</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F454">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>999</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D455">
+        <v>16</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F455">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>999</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D456">
+        <v>16</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F456">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
+        <v>999</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D457">
+        <v>16</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F457">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
+        <v>999</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D458">
+        <v>16</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F458">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
+        <v>999</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D459">
+        <v>16</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F459">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A460" t="s">
+        <v>999</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D460">
+        <v>16</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F460">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
+        <v>999</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D461">
+        <v>16</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F461">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>999</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D462">
+        <v>16</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F462">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>999</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D463">
+        <v>16</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F463">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A465" t="s">
+        <v>657</v>
+      </c>
+      <c r="B465" t="s">
+        <v>717</v>
+      </c>
+      <c r="C465" t="s">
+        <v>718</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465" t="s">
+        <v>719</v>
+      </c>
+      <c r="F465">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
+        <v>657</v>
+      </c>
+      <c r="B466" t="s">
+        <v>720</v>
+      </c>
+      <c r="C466" t="s">
+        <v>744</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466" t="s">
+        <v>732</v>
+      </c>
+      <c r="F466">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A467" t="s">
+        <v>657</v>
+      </c>
+      <c r="B467" t="s">
+        <v>721</v>
+      </c>
+      <c r="C467" t="s">
+        <v>745</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467" t="s">
+        <v>733</v>
+      </c>
+      <c r="F467">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
+        <v>657</v>
+      </c>
+      <c r="B468" t="s">
+        <v>722</v>
+      </c>
+      <c r="C468" t="s">
+        <v>746</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468" t="s">
+        <v>734</v>
+      </c>
+      <c r="F468">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A469" t="s">
+        <v>657</v>
+      </c>
+      <c r="B469" t="s">
+        <v>723</v>
+      </c>
+      <c r="C469" t="s">
+        <v>747</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469" t="s">
+        <v>735</v>
+      </c>
+      <c r="F469">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
+        <v>657</v>
+      </c>
+      <c r="B470" t="s">
+        <v>724</v>
+      </c>
+      <c r="C470" t="s">
+        <v>748</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470" t="s">
+        <v>736</v>
+      </c>
+      <c r="F470">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A471" t="s">
+        <v>657</v>
+      </c>
+      <c r="B471" t="s">
+        <v>725</v>
+      </c>
+      <c r="C471" t="s">
+        <v>749</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471" t="s">
+        <v>737</v>
+      </c>
+      <c r="F471">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A472" t="s">
+        <v>657</v>
+      </c>
+      <c r="B472" t="s">
+        <v>726</v>
+      </c>
+      <c r="C472" t="s">
+        <v>750</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472" t="s">
+        <v>738</v>
+      </c>
+      <c r="F472">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A473" t="s">
+        <v>657</v>
+      </c>
+      <c r="B473" t="s">
+        <v>727</v>
+      </c>
+      <c r="C473" t="s">
+        <v>751</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473" t="s">
+        <v>739</v>
+      </c>
+      <c r="F473">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A474" t="s">
+        <v>657</v>
+      </c>
+      <c r="B474" t="s">
+        <v>728</v>
+      </c>
+      <c r="C474" t="s">
+        <v>752</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474" t="s">
+        <v>740</v>
+      </c>
+      <c r="F474">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A475" t="s">
+        <v>657</v>
+      </c>
+      <c r="B475" t="s">
+        <v>729</v>
+      </c>
+      <c r="C475" t="s">
+        <v>753</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475" t="s">
+        <v>741</v>
+      </c>
+      <c r="F475">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A476" t="s">
+        <v>657</v>
+      </c>
+      <c r="B476" t="s">
+        <v>730</v>
+      </c>
+      <c r="C476" t="s">
+        <v>754</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476" t="s">
+        <v>742</v>
+      </c>
+      <c r="F476">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A477" t="s">
+        <v>657</v>
+      </c>
+      <c r="B477" t="s">
+        <v>731</v>
+      </c>
+      <c r="C477" t="s">
+        <v>755</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477" t="s">
+        <v>743</v>
+      </c>
+      <c r="F477">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A478" t="s">
+        <v>999</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D478">
+        <v>16</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F478">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A480" t="s">
+        <v>647</v>
+      </c>
+      <c r="B480" t="s">
+        <v>756</v>
+      </c>
+      <c r="C480" t="s">
+        <v>757</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480" t="s">
+        <v>758</v>
+      </c>
+      <c r="F480">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A481" t="s">
+        <v>999</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D481">
+        <v>16</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F481">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A482" t="s">
+        <v>999</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D482">
         <v>42</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F482">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A483" t="s">
+        <v>999</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D483">
+        <v>42</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F483">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A484" t="s">
+        <v>999</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D484">
+        <v>42</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F484">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A485" t="s">
+        <v>999</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D485">
+        <v>16</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F485">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A486" t="s">
+        <v>999</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D486">
+        <v>16</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F486">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A488" t="s">
+        <v>647</v>
+      </c>
+      <c r="B488" t="s">
+        <v>761</v>
+      </c>
+      <c r="C488" t="s">
+        <v>760</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488" t="s">
+        <v>759</v>
+      </c>
+      <c r="F488">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/04-21/addr.xlsx
+++ b/04-21/addr.xlsx
@@ -4186,219 +4186,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ADDR_INFO_HANGYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO_CONTACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0aab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0abb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0ae5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#define </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#define </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b6b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b7d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b8f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_CO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0ba1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0baa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_CO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0bb3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0bbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0bc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0bce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0bd7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0be0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0be9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0bf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_GPRS_4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_CUT_VP_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ADDR_INFO_INSTALL_PLACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INFO_HANGYE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INFO_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INFO_PHONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INFO_CONTACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0aab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0abb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0ae5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">#define </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">#define </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b6b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b7d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b8f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0b98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_CO_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0ba1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0baa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_CO_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0bb3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0bbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0bc5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0bce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0bd7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0be0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0be9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0bf2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_GPRS_4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_CUT_VP_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4815,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="B456" sqref="B456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5388,13 +5388,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C29" t="s">
         <v>1069</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1070</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -5965,13 +5965,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B59" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D59">
         <v>9</v>
@@ -11522,13 +11522,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B367" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C367" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D367">
         <v>9</v>
@@ -11539,13 +11539,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B368" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C368" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D368">
         <v>9</v>
@@ -11596,13 +11596,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B372" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C372" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D372">
         <v>9</v>
@@ -11613,13 +11613,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B373" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C373" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D373">
         <v>9</v>
@@ -11670,13 +11670,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B377" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C377" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D377">
         <v>9</v>
@@ -11687,13 +11687,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B378" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C378" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D378">
         <v>9</v>
@@ -11744,13 +11744,13 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B382" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C382" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D382">
         <v>9</v>
@@ -11761,13 +11761,13 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B383" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C383" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D383">
         <v>9</v>
@@ -12238,13 +12238,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B409" t="s">
         <v>1058</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
         <v>1059</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1060</v>
       </c>
       <c r="D409">
         <v>9</v>
@@ -12255,13 +12255,13 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B410" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C410" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D410">
         <v>9</v>
@@ -12272,13 +12272,13 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B411" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C411" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D411">
         <v>9</v>
@@ -12289,13 +12289,13 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B412" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C412" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D412">
         <v>9</v>
@@ -12306,13 +12306,13 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B413" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C413" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D413">
         <v>9</v>
@@ -12323,13 +12323,13 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B414" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C414" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D414">
         <v>9</v>
@@ -12340,13 +12340,13 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B415" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C415" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D415">
         <v>9</v>
@@ -12357,13 +12357,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B416" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C416" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D416">
         <v>9</v>
@@ -13860,7 +13860,7 @@
         <v>1040</v>
       </c>
       <c r="C499" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D499">
         <v>16</v>
@@ -13877,16 +13877,16 @@
         <v>999</v>
       </c>
       <c r="B500" t="s">
-        <v>1042</v>
+        <v>1095</v>
       </c>
       <c r="C500" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D500">
         <v>42</v>
       </c>
       <c r="E500" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F500">
         <v>49</v>
@@ -13897,16 +13897,16 @@
         <v>999</v>
       </c>
       <c r="B501" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C501" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D501">
         <v>42</v>
       </c>
       <c r="E501" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F501">
         <v>49</v>
@@ -13917,16 +13917,16 @@
         <v>999</v>
       </c>
       <c r="B502" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C502" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D502">
         <v>42</v>
       </c>
       <c r="E502" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F502">
         <v>49</v>
@@ -13937,16 +13937,16 @@
         <v>999</v>
       </c>
       <c r="B503" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C503" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D503">
         <v>16</v>
       </c>
       <c r="E503" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F503">
         <v>49</v>
@@ -13957,16 +13957,16 @@
         <v>999</v>
       </c>
       <c r="B504" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C504" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D504">
         <v>16</v>
       </c>
       <c r="E504" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F504">
         <v>49</v>

--- a/04-21/addr.xlsx
+++ b/04-21/addr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1095">
   <si>
     <t>#define</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2738,10 +2738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOUCH_INTRFACE_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00b6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2774,58 +2770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOUCH_INTRFACE_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_INTRFACE_RETURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00b7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4399,6 +4343,58 @@
   </si>
   <si>
     <t>ADDR_INFO_INSTALL_PLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_INTERFACE_OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4815,8 +4811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="B456" sqref="B456"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="B469" sqref="B469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5388,13 +5384,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B29" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="C29" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -5965,13 +5961,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B59" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="C59" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="D59">
         <v>9</v>
@@ -6468,7 +6464,7 @@
         <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D97">
         <v>16</v>
@@ -6488,7 +6484,7 @@
         <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -6508,7 +6504,7 @@
         <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D99">
         <v>16</v>
@@ -6528,7 +6524,7 @@
         <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -6548,7 +6544,7 @@
         <v>224</v>
       </c>
       <c r="C101" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="D101">
         <v>16</v>
@@ -6568,7 +6564,7 @@
         <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -6588,7 +6584,7 @@
         <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D103">
         <v>16</v>
@@ -6608,7 +6604,7 @@
         <v>227</v>
       </c>
       <c r="C104" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -6628,7 +6624,7 @@
         <v>228</v>
       </c>
       <c r="C105" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="D105">
         <v>16</v>
@@ -6648,7 +6644,7 @@
         <v>229</v>
       </c>
       <c r="C106" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -6668,7 +6664,7 @@
         <v>230</v>
       </c>
       <c r="C107" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="D107">
         <v>16</v>
@@ -6688,7 +6684,7 @@
         <v>231</v>
       </c>
       <c r="C108" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -6708,7 +6704,7 @@
         <v>232</v>
       </c>
       <c r="C109" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D109">
         <v>16</v>
@@ -6728,7 +6724,7 @@
         <v>233</v>
       </c>
       <c r="C110" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -6828,7 +6824,7 @@
         <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -6848,7 +6844,7 @@
         <v>257</v>
       </c>
       <c r="C116" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D116">
         <v>4</v>
@@ -6868,7 +6864,7 @@
         <v>262</v>
       </c>
       <c r="C118" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="D118">
         <v>16</v>
@@ -6888,7 +6884,7 @@
         <v>263</v>
       </c>
       <c r="C119" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D119">
         <v>6</v>
@@ -6908,7 +6904,7 @@
         <v>264</v>
       </c>
       <c r="C120" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -6928,7 +6924,7 @@
         <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="D121">
         <v>6</v>
@@ -6948,7 +6944,7 @@
         <v>266</v>
       </c>
       <c r="C122" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="D122">
         <v>16</v>
@@ -6968,7 +6964,7 @@
         <v>267</v>
       </c>
       <c r="C123" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -6988,7 +6984,7 @@
         <v>268</v>
       </c>
       <c r="C124" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="D124">
         <v>16</v>
@@ -7008,7 +7004,7 @@
         <v>269</v>
       </c>
       <c r="C125" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -7028,7 +7024,7 @@
         <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="D126">
         <v>16</v>
@@ -7048,7 +7044,7 @@
         <v>271</v>
       </c>
       <c r="C127" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -7068,7 +7064,7 @@
         <v>272</v>
       </c>
       <c r="C128" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="D128">
         <v>16</v>
@@ -7088,7 +7084,7 @@
         <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D129">
         <v>6</v>
@@ -7108,7 +7104,7 @@
         <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="D130">
         <v>16</v>
@@ -7128,7 +7124,7 @@
         <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -7228,7 +7224,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -7248,7 +7244,7 @@
         <v>281</v>
       </c>
       <c r="C137" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -7268,7 +7264,7 @@
         <v>282</v>
       </c>
       <c r="C139" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="D139">
         <v>16</v>
@@ -7288,7 +7284,7 @@
         <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -7308,7 +7304,7 @@
         <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D141">
         <v>16</v>
@@ -7328,7 +7324,7 @@
         <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -7348,7 +7344,7 @@
         <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="D143">
         <v>16</v>
@@ -7368,7 +7364,7 @@
         <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -7388,7 +7384,7 @@
         <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="D145">
         <v>16</v>
@@ -7408,7 +7404,7 @@
         <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="D146">
         <v>6</v>
@@ -7428,7 +7424,7 @@
         <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="D147">
         <v>16</v>
@@ -7448,7 +7444,7 @@
         <v>291</v>
       </c>
       <c r="C148" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="D148">
         <v>6</v>
@@ -7468,7 +7464,7 @@
         <v>292</v>
       </c>
       <c r="C149" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="D149">
         <v>16</v>
@@ -7488,7 +7484,7 @@
         <v>293</v>
       </c>
       <c r="C150" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D150">
         <v>6</v>
@@ -7508,7 +7504,7 @@
         <v>294</v>
       </c>
       <c r="C151" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="D151">
         <v>16</v>
@@ -7528,7 +7524,7 @@
         <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="D152">
         <v>6</v>
@@ -7628,7 +7624,7 @@
         <v>300</v>
       </c>
       <c r="C157" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="D157">
         <v>4</v>
@@ -7648,7 +7644,7 @@
         <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="D158">
         <v>4</v>
@@ -7668,7 +7664,7 @@
         <v>302</v>
       </c>
       <c r="C160" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D160">
         <v>16</v>
@@ -7688,7 +7684,7 @@
         <v>303</v>
       </c>
       <c r="C161" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D161">
         <v>6</v>
@@ -7708,7 +7704,7 @@
         <v>304</v>
       </c>
       <c r="C162" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D162">
         <v>16</v>
@@ -7728,7 +7724,7 @@
         <v>305</v>
       </c>
       <c r="C163" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="D163">
         <v>6</v>
@@ -7748,7 +7744,7 @@
         <v>306</v>
       </c>
       <c r="C164" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D164">
         <v>16</v>
@@ -7768,7 +7764,7 @@
         <v>307</v>
       </c>
       <c r="C165" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="D165">
         <v>6</v>
@@ -7788,7 +7784,7 @@
         <v>308</v>
       </c>
       <c r="C166" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="D166">
         <v>16</v>
@@ -7808,7 +7804,7 @@
         <v>309</v>
       </c>
       <c r="C167" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="D167">
         <v>6</v>
@@ -7828,7 +7824,7 @@
         <v>310</v>
       </c>
       <c r="C168" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="D168">
         <v>16</v>
@@ -7848,7 +7844,7 @@
         <v>311</v>
       </c>
       <c r="C169" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D169">
         <v>6</v>
@@ -7868,7 +7864,7 @@
         <v>312</v>
       </c>
       <c r="C170" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="D170">
         <v>16</v>
@@ -7888,7 +7884,7 @@
         <v>313</v>
       </c>
       <c r="C171" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D171">
         <v>6</v>
@@ -7908,7 +7904,7 @@
         <v>314</v>
       </c>
       <c r="C172" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="D172">
         <v>16</v>
@@ -7928,7 +7924,7 @@
         <v>315</v>
       </c>
       <c r="C173" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="D173">
         <v>6</v>
@@ -8028,7 +8024,7 @@
         <v>320</v>
       </c>
       <c r="C178" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="D178">
         <v>4</v>
@@ -8048,7 +8044,7 @@
         <v>321</v>
       </c>
       <c r="C179" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D179">
         <v>4</v>
@@ -8068,7 +8064,7 @@
         <v>322</v>
       </c>
       <c r="C181" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D181">
         <v>16</v>
@@ -8088,7 +8084,7 @@
         <v>323</v>
       </c>
       <c r="C182" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="D182">
         <v>6</v>
@@ -8108,7 +8104,7 @@
         <v>324</v>
       </c>
       <c r="C183" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D183">
         <v>16</v>
@@ -8128,7 +8124,7 @@
         <v>325</v>
       </c>
       <c r="C184" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="D184">
         <v>6</v>
@@ -8148,7 +8144,7 @@
         <v>326</v>
       </c>
       <c r="C185" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="D185">
         <v>16</v>
@@ -8168,7 +8164,7 @@
         <v>327</v>
       </c>
       <c r="C186" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D186">
         <v>6</v>
@@ -8188,7 +8184,7 @@
         <v>328</v>
       </c>
       <c r="C187" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="D187">
         <v>16</v>
@@ -8208,7 +8204,7 @@
         <v>329</v>
       </c>
       <c r="C188" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="D188">
         <v>6</v>
@@ -8228,7 +8224,7 @@
         <v>330</v>
       </c>
       <c r="C189" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="D189">
         <v>16</v>
@@ -8248,7 +8244,7 @@
         <v>331</v>
       </c>
       <c r="C190" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="D190">
         <v>6</v>
@@ -8268,7 +8264,7 @@
         <v>332</v>
       </c>
       <c r="C191" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="D191">
         <v>16</v>
@@ -8288,7 +8284,7 @@
         <v>333</v>
       </c>
       <c r="C192" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D192">
         <v>6</v>
@@ -8308,7 +8304,7 @@
         <v>334</v>
       </c>
       <c r="C193" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="D193">
         <v>16</v>
@@ -8328,7 +8324,7 @@
         <v>335</v>
       </c>
       <c r="C194" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="D194">
         <v>6</v>
@@ -8428,7 +8424,7 @@
         <v>340</v>
       </c>
       <c r="C199" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="D199">
         <v>4</v>
@@ -8448,7 +8444,7 @@
         <v>341</v>
       </c>
       <c r="C200" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="D200">
         <v>4</v>
@@ -8468,7 +8464,7 @@
         <v>342</v>
       </c>
       <c r="C202" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D202">
         <v>16</v>
@@ -8488,7 +8484,7 @@
         <v>343</v>
       </c>
       <c r="C203" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="D203">
         <v>6</v>
@@ -8508,7 +8504,7 @@
         <v>344</v>
       </c>
       <c r="C204" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="D204">
         <v>16</v>
@@ -8528,7 +8524,7 @@
         <v>345</v>
       </c>
       <c r="C205" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="D205">
         <v>6</v>
@@ -8548,7 +8544,7 @@
         <v>346</v>
       </c>
       <c r="C206" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="D206">
         <v>16</v>
@@ -8568,7 +8564,7 @@
         <v>347</v>
       </c>
       <c r="C207" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -8588,7 +8584,7 @@
         <v>348</v>
       </c>
       <c r="C208" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="D208">
         <v>16</v>
@@ -8608,7 +8604,7 @@
         <v>349</v>
       </c>
       <c r="C209" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="D209">
         <v>6</v>
@@ -8628,7 +8624,7 @@
         <v>350</v>
       </c>
       <c r="C210" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D210">
         <v>16</v>
@@ -8648,7 +8644,7 @@
         <v>351</v>
       </c>
       <c r="C211" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D211">
         <v>6</v>
@@ -8668,7 +8664,7 @@
         <v>352</v>
       </c>
       <c r="C212" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D212">
         <v>16</v>
@@ -8688,7 +8684,7 @@
         <v>353</v>
       </c>
       <c r="C213" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D213">
         <v>6</v>
@@ -8708,7 +8704,7 @@
         <v>354</v>
       </c>
       <c r="C214" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="D214">
         <v>16</v>
@@ -8728,7 +8724,7 @@
         <v>355</v>
       </c>
       <c r="C215" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D215">
         <v>6</v>
@@ -8828,7 +8824,7 @@
         <v>360</v>
       </c>
       <c r="C220" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="D220">
         <v>4</v>
@@ -8848,7 +8844,7 @@
         <v>361</v>
       </c>
       <c r="C221" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="D221">
         <v>4</v>
@@ -8868,7 +8864,7 @@
         <v>362</v>
       </c>
       <c r="C223" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D223">
         <v>16</v>
@@ -8888,7 +8884,7 @@
         <v>363</v>
       </c>
       <c r="C224" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D224">
         <v>6</v>
@@ -8908,7 +8904,7 @@
         <v>364</v>
       </c>
       <c r="C225" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="D225">
         <v>16</v>
@@ -8928,7 +8924,7 @@
         <v>365</v>
       </c>
       <c r="C226" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="D226">
         <v>6</v>
@@ -8948,7 +8944,7 @@
         <v>366</v>
       </c>
       <c r="C227" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="D227">
         <v>16</v>
@@ -8968,7 +8964,7 @@
         <v>367</v>
       </c>
       <c r="C228" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="D228">
         <v>6</v>
@@ -8988,7 +8984,7 @@
         <v>368</v>
       </c>
       <c r="C229" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="D229">
         <v>16</v>
@@ -9008,7 +9004,7 @@
         <v>369</v>
       </c>
       <c r="C230" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="D230">
         <v>6</v>
@@ -9028,7 +9024,7 @@
         <v>370</v>
       </c>
       <c r="C231" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="D231">
         <v>16</v>
@@ -9048,7 +9044,7 @@
         <v>371</v>
       </c>
       <c r="C232" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="D232">
         <v>6</v>
@@ -9068,7 +9064,7 @@
         <v>372</v>
       </c>
       <c r="C233" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="D233">
         <v>16</v>
@@ -9088,7 +9084,7 @@
         <v>373</v>
       </c>
       <c r="C234" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="D234">
         <v>6</v>
@@ -9108,7 +9104,7 @@
         <v>374</v>
       </c>
       <c r="C235" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="D235">
         <v>16</v>
@@ -9128,7 +9124,7 @@
         <v>375</v>
       </c>
       <c r="C236" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="D236">
         <v>6</v>
@@ -9228,7 +9224,7 @@
         <v>380</v>
       </c>
       <c r="C241" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -9248,7 +9244,7 @@
         <v>381</v>
       </c>
       <c r="C242" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="D242">
         <v>4</v>
@@ -9268,7 +9264,7 @@
         <v>382</v>
       </c>
       <c r="C244" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="D244">
         <v>16</v>
@@ -9288,7 +9284,7 @@
         <v>383</v>
       </c>
       <c r="C245" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="D245">
         <v>6</v>
@@ -9308,7 +9304,7 @@
         <v>384</v>
       </c>
       <c r="C246" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="D246">
         <v>16</v>
@@ -9328,7 +9324,7 @@
         <v>385</v>
       </c>
       <c r="C247" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="D247">
         <v>6</v>
@@ -9348,7 +9344,7 @@
         <v>386</v>
       </c>
       <c r="C248" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="D248">
         <v>16</v>
@@ -9368,7 +9364,7 @@
         <v>387</v>
       </c>
       <c r="C249" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="D249">
         <v>6</v>
@@ -9388,7 +9384,7 @@
         <v>388</v>
       </c>
       <c r="C250" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="D250">
         <v>16</v>
@@ -9408,7 +9404,7 @@
         <v>389</v>
       </c>
       <c r="C251" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="D251">
         <v>6</v>
@@ -9428,7 +9424,7 @@
         <v>390</v>
       </c>
       <c r="C252" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="D252">
         <v>16</v>
@@ -9448,7 +9444,7 @@
         <v>391</v>
       </c>
       <c r="C253" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="D253">
         <v>6</v>
@@ -9468,7 +9464,7 @@
         <v>392</v>
       </c>
       <c r="C254" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="D254">
         <v>16</v>
@@ -9488,7 +9484,7 @@
         <v>393</v>
       </c>
       <c r="C255" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="D255">
         <v>6</v>
@@ -9508,7 +9504,7 @@
         <v>394</v>
       </c>
       <c r="C256" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="D256">
         <v>16</v>
@@ -9528,7 +9524,7 @@
         <v>395</v>
       </c>
       <c r="C257" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="D257">
         <v>6</v>
@@ -9628,7 +9624,7 @@
         <v>400</v>
       </c>
       <c r="C262" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="D262">
         <v>4</v>
@@ -9648,7 +9644,7 @@
         <v>401</v>
       </c>
       <c r="C263" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="D263">
         <v>4</v>
@@ -9668,7 +9664,7 @@
         <v>404</v>
       </c>
       <c r="C265" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="D265">
         <v>16</v>
@@ -9688,7 +9684,7 @@
         <v>405</v>
       </c>
       <c r="C266" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="D266">
         <v>6</v>
@@ -9708,7 +9704,7 @@
         <v>406</v>
       </c>
       <c r="C267" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="D267">
         <v>16</v>
@@ -9728,7 +9724,7 @@
         <v>407</v>
       </c>
       <c r="C268" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="D268">
         <v>6</v>
@@ -9748,7 +9744,7 @@
         <v>408</v>
       </c>
       <c r="C269" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="D269">
         <v>16</v>
@@ -9768,7 +9764,7 @@
         <v>409</v>
       </c>
       <c r="C270" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="D270">
         <v>6</v>
@@ -9788,7 +9784,7 @@
         <v>410</v>
       </c>
       <c r="C271" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="D271">
         <v>16</v>
@@ -9808,7 +9804,7 @@
         <v>411</v>
       </c>
       <c r="C272" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="D272">
         <v>6</v>
@@ -9828,7 +9824,7 @@
         <v>412</v>
       </c>
       <c r="C273" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="D273">
         <v>16</v>
@@ -9848,7 +9844,7 @@
         <v>413</v>
       </c>
       <c r="C274" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="D274">
         <v>6</v>
@@ -9868,7 +9864,7 @@
         <v>414</v>
       </c>
       <c r="C275" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="D275">
         <v>16</v>
@@ -9888,7 +9884,7 @@
         <v>415</v>
       </c>
       <c r="C276" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="D276">
         <v>6</v>
@@ -9908,7 +9904,7 @@
         <v>416</v>
       </c>
       <c r="C277" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D277">
         <v>16</v>
@@ -9928,7 +9924,7 @@
         <v>417</v>
       </c>
       <c r="C278" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="D278">
         <v>6</v>
@@ -10028,7 +10024,7 @@
         <v>422</v>
       </c>
       <c r="C283" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D283">
         <v>4</v>
@@ -10048,7 +10044,7 @@
         <v>423</v>
       </c>
       <c r="C284" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="D284">
         <v>4</v>
@@ -10068,7 +10064,7 @@
         <v>424</v>
       </c>
       <c r="C286" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="D286">
         <v>16</v>
@@ -10088,7 +10084,7 @@
         <v>425</v>
       </c>
       <c r="C287" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="D287">
         <v>6</v>
@@ -10108,7 +10104,7 @@
         <v>426</v>
       </c>
       <c r="C288" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D288">
         <v>16</v>
@@ -10128,7 +10124,7 @@
         <v>427</v>
       </c>
       <c r="C289" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="D289">
         <v>6</v>
@@ -10148,7 +10144,7 @@
         <v>428</v>
       </c>
       <c r="C290" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="D290">
         <v>16</v>
@@ -10168,7 +10164,7 @@
         <v>429</v>
       </c>
       <c r="C291" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="D291">
         <v>6</v>
@@ -10188,7 +10184,7 @@
         <v>430</v>
       </c>
       <c r="C292" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="D292">
         <v>16</v>
@@ -10208,7 +10204,7 @@
         <v>431</v>
       </c>
       <c r="C293" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="D293">
         <v>6</v>
@@ -10228,7 +10224,7 @@
         <v>432</v>
       </c>
       <c r="C294" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="D294">
         <v>16</v>
@@ -10248,7 +10244,7 @@
         <v>433</v>
       </c>
       <c r="C295" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="D295">
         <v>6</v>
@@ -10268,7 +10264,7 @@
         <v>434</v>
       </c>
       <c r="C296" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="D296">
         <v>16</v>
@@ -10288,7 +10284,7 @@
         <v>435</v>
       </c>
       <c r="C297" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="D297">
         <v>6</v>
@@ -10308,7 +10304,7 @@
         <v>436</v>
       </c>
       <c r="C298" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D298">
         <v>16</v>
@@ -10328,7 +10324,7 @@
         <v>437</v>
       </c>
       <c r="C299" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="D299">
         <v>6</v>
@@ -10428,7 +10424,7 @@
         <v>442</v>
       </c>
       <c r="C304" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="D304">
         <v>4</v>
@@ -10448,7 +10444,7 @@
         <v>443</v>
       </c>
       <c r="C305" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="D305">
         <v>4</v>
@@ -10468,7 +10464,7 @@
         <v>444</v>
       </c>
       <c r="C307" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="D307">
         <v>16</v>
@@ -10488,7 +10484,7 @@
         <v>445</v>
       </c>
       <c r="C308" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="D308">
         <v>6</v>
@@ -10508,7 +10504,7 @@
         <v>446</v>
       </c>
       <c r="C309" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="D309">
         <v>16</v>
@@ -10528,7 +10524,7 @@
         <v>447</v>
       </c>
       <c r="C310" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="D310">
         <v>6</v>
@@ -10548,7 +10544,7 @@
         <v>448</v>
       </c>
       <c r="C311" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="D311">
         <v>16</v>
@@ -10568,7 +10564,7 @@
         <v>449</v>
       </c>
       <c r="C312" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="D312">
         <v>6</v>
@@ -10588,7 +10584,7 @@
         <v>450</v>
       </c>
       <c r="C313" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="D313">
         <v>16</v>
@@ -10608,7 +10604,7 @@
         <v>451</v>
       </c>
       <c r="C314" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="D314">
         <v>6</v>
@@ -10628,7 +10624,7 @@
         <v>452</v>
       </c>
       <c r="C315" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="D315">
         <v>16</v>
@@ -10648,7 +10644,7 @@
         <v>453</v>
       </c>
       <c r="C316" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="D316">
         <v>6</v>
@@ -10668,7 +10664,7 @@
         <v>454</v>
       </c>
       <c r="C317" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="D317">
         <v>16</v>
@@ -10688,7 +10684,7 @@
         <v>455</v>
       </c>
       <c r="C318" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="D318">
         <v>6</v>
@@ -10708,7 +10704,7 @@
         <v>456</v>
       </c>
       <c r="C319" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="D319">
         <v>16</v>
@@ -10728,7 +10724,7 @@
         <v>457</v>
       </c>
       <c r="C320" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="D320">
         <v>6</v>
@@ -10828,7 +10824,7 @@
         <v>462</v>
       </c>
       <c r="C325" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="D325">
         <v>4</v>
@@ -10848,7 +10844,7 @@
         <v>463</v>
       </c>
       <c r="C326" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="D326">
         <v>4</v>
@@ -10868,7 +10864,7 @@
         <v>464</v>
       </c>
       <c r="C328" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="D328">
         <v>16</v>
@@ -10888,7 +10884,7 @@
         <v>465</v>
       </c>
       <c r="C329" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="D329">
         <v>6</v>
@@ -10908,7 +10904,7 @@
         <v>466</v>
       </c>
       <c r="C330" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="D330">
         <v>16</v>
@@ -10928,7 +10924,7 @@
         <v>467</v>
       </c>
       <c r="C331" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="D331">
         <v>6</v>
@@ -10948,7 +10944,7 @@
         <v>468</v>
       </c>
       <c r="C332" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="D332">
         <v>16</v>
@@ -10968,7 +10964,7 @@
         <v>469</v>
       </c>
       <c r="C333" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="D333">
         <v>6</v>
@@ -10988,7 +10984,7 @@
         <v>470</v>
       </c>
       <c r="C334" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="D334">
         <v>16</v>
@@ -11008,7 +11004,7 @@
         <v>471</v>
       </c>
       <c r="C335" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="D335">
         <v>6</v>
@@ -11028,7 +11024,7 @@
         <v>472</v>
       </c>
       <c r="C336" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="D336">
         <v>16</v>
@@ -11048,7 +11044,7 @@
         <v>473</v>
       </c>
       <c r="C337" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="D337">
         <v>6</v>
@@ -11068,7 +11064,7 @@
         <v>474</v>
       </c>
       <c r="C338" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="D338">
         <v>16</v>
@@ -11088,7 +11084,7 @@
         <v>475</v>
       </c>
       <c r="C339" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="D339">
         <v>6</v>
@@ -11108,7 +11104,7 @@
         <v>476</v>
       </c>
       <c r="C340" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="D340">
         <v>16</v>
@@ -11128,7 +11124,7 @@
         <v>477</v>
       </c>
       <c r="C341" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="D341">
         <v>6</v>
@@ -11228,7 +11224,7 @@
         <v>482</v>
       </c>
       <c r="C346" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="D346">
         <v>4</v>
@@ -11248,7 +11244,7 @@
         <v>483</v>
       </c>
       <c r="C347" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="D347">
         <v>4</v>
@@ -11308,7 +11304,7 @@
         <v>533</v>
       </c>
       <c r="C352" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D352">
         <v>32</v>
@@ -11328,7 +11324,7 @@
         <v>535</v>
       </c>
       <c r="C353" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="D353">
         <v>32</v>
@@ -11348,7 +11344,7 @@
         <v>537</v>
       </c>
       <c r="C354" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D354">
         <v>10</v>
@@ -11522,13 +11518,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C367" t="s">
         <v>1060</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1074</v>
       </c>
       <c r="D367">
         <v>9</v>
@@ -11539,13 +11535,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B368" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="C368" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D368">
         <v>9</v>
@@ -11596,13 +11592,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B372" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="C372" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="D372">
         <v>9</v>
@@ -11613,13 +11609,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B373" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="C373" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="D373">
         <v>9</v>
@@ -11670,13 +11666,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B377" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="C377" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="D377">
         <v>9</v>
@@ -11687,13 +11683,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B378" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="C378" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="D378">
         <v>9</v>
@@ -11744,13 +11740,13 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B382" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="C382" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="D382">
         <v>9</v>
@@ -11761,13 +11757,13 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B383" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="C383" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="D383">
         <v>9</v>
@@ -12041,16 +12037,16 @@
         <v>661</v>
       </c>
       <c r="B399" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="C399" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="D399">
         <v>10</v>
       </c>
       <c r="E399" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F399">
         <v>40</v>
@@ -12061,16 +12057,16 @@
         <v>661</v>
       </c>
       <c r="B400" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="C400" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="D400">
         <v>10</v>
       </c>
       <c r="E400" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F400">
         <v>40</v>
@@ -12081,16 +12077,16 @@
         <v>661</v>
       </c>
       <c r="B401" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="C401" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="D401">
         <v>10</v>
       </c>
       <c r="E401" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F401">
         <v>40</v>
@@ -12101,16 +12097,16 @@
         <v>661</v>
       </c>
       <c r="B402" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="C402" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="D402">
         <v>10</v>
       </c>
       <c r="E402" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F402">
         <v>40</v>
@@ -12121,16 +12117,16 @@
         <v>661</v>
       </c>
       <c r="B403" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="C403" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="D403">
         <v>10</v>
       </c>
       <c r="E403" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F403">
         <v>40</v>
@@ -12141,16 +12137,16 @@
         <v>661</v>
       </c>
       <c r="B404" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="C404" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="D404">
         <v>10</v>
       </c>
       <c r="E404" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F404">
         <v>40</v>
@@ -12161,16 +12157,16 @@
         <v>661</v>
       </c>
       <c r="B405" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="C405" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="D405">
         <v>10</v>
       </c>
       <c r="E405" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F405">
         <v>40</v>
@@ -12181,16 +12177,16 @@
         <v>661</v>
       </c>
       <c r="B406" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="C406" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="D406">
         <v>10</v>
       </c>
       <c r="E406" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F406">
         <v>40</v>
@@ -12201,16 +12197,16 @@
         <v>661</v>
       </c>
       <c r="B407" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="C407" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="D407">
         <v>10</v>
       </c>
       <c r="E407" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F407">
         <v>40</v>
@@ -12221,16 +12217,16 @@
         <v>661</v>
       </c>
       <c r="B408" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="C408" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="D408">
         <v>10</v>
       </c>
       <c r="E408" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F408">
         <v>40</v>
@@ -12238,13 +12234,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B409" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="C409" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="D409">
         <v>9</v>
@@ -12255,13 +12251,13 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B410" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="C410" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="D410">
         <v>9</v>
@@ -12272,13 +12268,13 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B411" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="C411" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="D411">
         <v>9</v>
@@ -12289,13 +12285,13 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B412" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="C412" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="D412">
         <v>9</v>
@@ -12306,13 +12302,13 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B413" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="C413" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="D413">
         <v>9</v>
@@ -12323,13 +12319,13 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B414" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="C414" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="D414">
         <v>9</v>
@@ -12340,13 +12336,13 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B415" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="C415" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="D415">
         <v>9</v>
@@ -12357,13 +12353,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B416" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="C416" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="D416">
         <v>9</v>
@@ -12457,16 +12453,16 @@
         <v>661</v>
       </c>
       <c r="B422" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="C422" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="D422">
         <v>8</v>
       </c>
       <c r="E422" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="F422">
         <v>41</v>
@@ -12477,16 +12473,16 @@
         <v>661</v>
       </c>
       <c r="B423" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="C423" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="D423">
         <v>32</v>
       </c>
       <c r="E423" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="F423">
         <v>41</v>
@@ -12497,16 +12493,16 @@
         <v>661</v>
       </c>
       <c r="B424" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="C424" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="D424">
         <v>32</v>
       </c>
       <c r="E424" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="F424">
         <v>41</v>
@@ -12517,16 +12513,16 @@
         <v>661</v>
       </c>
       <c r="B425" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="C425" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="D425">
         <v>32</v>
       </c>
       <c r="E425" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="F425">
         <v>41</v>
@@ -12537,10 +12533,10 @@
         <v>591</v>
       </c>
       <c r="B427" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="C427" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="D427">
         <v>4</v>
@@ -12557,10 +12553,10 @@
         <v>591</v>
       </c>
       <c r="B428" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="C428" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="D428">
         <v>2</v>
@@ -12577,10 +12573,10 @@
         <v>591</v>
       </c>
       <c r="B429" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="C429" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="D429">
         <v>2</v>
@@ -12597,10 +12593,10 @@
         <v>591</v>
       </c>
       <c r="B430" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="C430" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="D430">
         <v>2</v>
@@ -12617,10 +12613,10 @@
         <v>591</v>
       </c>
       <c r="B431" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="C431" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -12637,10 +12633,10 @@
         <v>591</v>
       </c>
       <c r="B432" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="C432" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="D432">
         <v>2</v>
@@ -12774,19 +12770,19 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B440" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="C440" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="D440">
         <v>6</v>
       </c>
       <c r="E440" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="F440">
         <v>43</v>
@@ -12794,19 +12790,19 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B441" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="C441" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="D441">
         <v>6</v>
       </c>
       <c r="E441" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="F441">
         <v>43</v>
@@ -12854,19 +12850,19 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B445" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="C445" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="D445">
         <v>32</v>
       </c>
       <c r="E445" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="F445">
         <v>44</v>
@@ -12874,19 +12870,19 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B446" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="C446" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="D446">
         <v>32</v>
       </c>
       <c r="E446" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="F446">
         <v>44</v>
@@ -12926,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F449">
         <v>45</v>
@@ -12946,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F450">
         <v>45</v>
@@ -12966,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F451">
         <v>45</v>
@@ -12986,7 +12982,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F452">
         <v>45</v>
@@ -13006,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F453">
         <v>45</v>
@@ -13026,7 +13022,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F454">
         <v>45</v>
@@ -13037,16 +13033,16 @@
         <v>657</v>
       </c>
       <c r="B456" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C456" t="s">
         <v>680</v>
       </c>
-      <c r="C456" t="s">
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456" t="s">
         <v>681</v>
-      </c>
-      <c r="D456">
-        <v>1</v>
-      </c>
-      <c r="E456" t="s">
-        <v>682</v>
       </c>
       <c r="F456">
         <v>46</v>
@@ -13057,16 +13053,16 @@
         <v>657</v>
       </c>
       <c r="B457" t="s">
-        <v>689</v>
+        <v>1083</v>
       </c>
       <c r="C457" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D457">
         <v>1</v>
       </c>
       <c r="E457" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F457">
         <v>46</v>
@@ -13077,16 +13073,16 @@
         <v>657</v>
       </c>
       <c r="B458" t="s">
-        <v>690</v>
+        <v>1084</v>
       </c>
       <c r="C458" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="D458">
         <v>1</v>
       </c>
       <c r="E458" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F458">
         <v>46</v>
@@ -13097,16 +13093,16 @@
         <v>657</v>
       </c>
       <c r="B459" t="s">
-        <v>691</v>
+        <v>1085</v>
       </c>
       <c r="C459" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="D459">
         <v>1</v>
       </c>
       <c r="E459" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F459">
         <v>46</v>
@@ -13117,16 +13113,16 @@
         <v>657</v>
       </c>
       <c r="B460" t="s">
-        <v>692</v>
+        <v>1086</v>
       </c>
       <c r="C460" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="D460">
         <v>1</v>
       </c>
       <c r="E460" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F460">
         <v>46</v>
@@ -13137,16 +13133,16 @@
         <v>657</v>
       </c>
       <c r="B461" t="s">
-        <v>693</v>
+        <v>1087</v>
       </c>
       <c r="C461" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D461">
         <v>1</v>
       </c>
       <c r="E461" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F461">
         <v>46</v>
@@ -13157,16 +13153,16 @@
         <v>657</v>
       </c>
       <c r="B462" t="s">
-        <v>694</v>
+        <v>1088</v>
       </c>
       <c r="C462" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="D462">
         <v>1</v>
       </c>
       <c r="E462" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F462">
         <v>46</v>
@@ -13177,16 +13173,16 @@
         <v>657</v>
       </c>
       <c r="B463" t="s">
-        <v>695</v>
+        <v>1089</v>
       </c>
       <c r="C463" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="D463">
         <v>1</v>
       </c>
       <c r="E463" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F463">
         <v>46</v>
@@ -13197,16 +13193,16 @@
         <v>657</v>
       </c>
       <c r="B464" t="s">
-        <v>696</v>
+        <v>1090</v>
       </c>
       <c r="C464" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="D464">
         <v>1</v>
       </c>
       <c r="E464" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F464">
         <v>46</v>
@@ -13217,16 +13213,16 @@
         <v>657</v>
       </c>
       <c r="B465" t="s">
-        <v>697</v>
+        <v>1091</v>
       </c>
       <c r="C465" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="D465">
         <v>1</v>
       </c>
       <c r="E465" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F465">
         <v>46</v>
@@ -13237,16 +13233,16 @@
         <v>657</v>
       </c>
       <c r="B466" t="s">
-        <v>698</v>
+        <v>1092</v>
       </c>
       <c r="C466" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D466">
         <v>1</v>
       </c>
       <c r="E466" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F466">
         <v>46</v>
@@ -13257,16 +13253,16 @@
         <v>657</v>
       </c>
       <c r="B467" t="s">
-        <v>699</v>
+        <v>1093</v>
       </c>
       <c r="C467" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D467">
         <v>1</v>
       </c>
       <c r="E467" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F467">
         <v>46</v>
@@ -13277,16 +13273,16 @@
         <v>657</v>
       </c>
       <c r="B468" t="s">
-        <v>700</v>
+        <v>1094</v>
       </c>
       <c r="C468" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="D468">
         <v>1</v>
       </c>
       <c r="E468" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F468">
         <v>46</v>
@@ -13297,16 +13293,16 @@
         <v>657</v>
       </c>
       <c r="B469" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="C469" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D469">
         <v>1</v>
       </c>
       <c r="E469" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="F469">
         <v>46</v>
@@ -13314,19 +13310,19 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B470" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="C470" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="D470">
         <v>16</v>
       </c>
       <c r="E470" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F470">
         <v>46</v>
@@ -13334,19 +13330,19 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B471" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="C471" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="D471">
         <v>16</v>
       </c>
       <c r="E471" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F471">
         <v>46</v>
@@ -13354,19 +13350,19 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B472" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="C472" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="D472">
         <v>16</v>
       </c>
       <c r="E472" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F472">
         <v>46</v>
@@ -13374,19 +13370,19 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B473" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="C473" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="D473">
         <v>16</v>
       </c>
       <c r="E473" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F473">
         <v>46</v>
@@ -13394,19 +13390,19 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B474" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="C474" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="D474">
         <v>16</v>
       </c>
       <c r="E474" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F474">
         <v>46</v>
@@ -13414,19 +13410,19 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B475" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="C475" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D475">
         <v>16</v>
       </c>
       <c r="E475" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F475">
         <v>46</v>
@@ -13434,19 +13430,19 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B476" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="C476" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="D476">
         <v>16</v>
       </c>
       <c r="E476" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F476">
         <v>46</v>
@@ -13454,19 +13450,19 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B477" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="C477" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="D477">
         <v>16</v>
       </c>
       <c r="E477" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F477">
         <v>46</v>
@@ -13474,19 +13470,19 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B478" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="C478" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="D478">
         <v>16</v>
       </c>
       <c r="E478" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F478">
         <v>46</v>
@@ -13494,19 +13490,19 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B479" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="C479" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="D479">
         <v>16</v>
       </c>
       <c r="E479" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F479">
         <v>46</v>
@@ -13514,19 +13510,19 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B480" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C480" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="D480">
         <v>16</v>
       </c>
       <c r="E480" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F480">
         <v>46</v>
@@ -13534,19 +13530,19 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B481" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="C481" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="D481">
         <v>16</v>
       </c>
       <c r="E481" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F481">
         <v>46</v>
@@ -13557,16 +13553,16 @@
         <v>657</v>
       </c>
       <c r="B483" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="C483" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="D483">
         <v>1</v>
       </c>
       <c r="E483" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F483">
         <v>47</v>
@@ -13577,16 +13573,16 @@
         <v>657</v>
       </c>
       <c r="B484" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C484" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D484">
         <v>1</v>
       </c>
       <c r="E484" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="F484">
         <v>47</v>
@@ -13597,16 +13593,16 @@
         <v>657</v>
       </c>
       <c r="B485" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C485" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="D485">
         <v>1</v>
       </c>
       <c r="E485" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="F485">
         <v>47</v>
@@ -13617,16 +13613,16 @@
         <v>657</v>
       </c>
       <c r="B486" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="C486" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D486">
         <v>1</v>
       </c>
       <c r="E486" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="F486">
         <v>47</v>
@@ -13637,16 +13633,16 @@
         <v>657</v>
       </c>
       <c r="B487" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C487" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="D487">
         <v>1</v>
       </c>
       <c r="E487" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F487">
         <v>47</v>
@@ -13657,16 +13653,16 @@
         <v>657</v>
       </c>
       <c r="B488" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C488" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="D488">
         <v>1</v>
       </c>
       <c r="E488" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="F488">
         <v>47</v>
@@ -13677,16 +13673,16 @@
         <v>657</v>
       </c>
       <c r="B489" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="C489" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="D489">
         <v>1</v>
       </c>
       <c r="E489" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="F489">
         <v>47</v>
@@ -13697,16 +13693,16 @@
         <v>657</v>
       </c>
       <c r="B490" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="C490" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D490">
         <v>1</v>
       </c>
       <c r="E490" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="F490">
         <v>47</v>
@@ -13717,16 +13713,16 @@
         <v>657</v>
       </c>
       <c r="B491" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="C491" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="D491">
         <v>1</v>
       </c>
       <c r="E491" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F491">
         <v>47</v>
@@ -13737,16 +13733,16 @@
         <v>657</v>
       </c>
       <c r="B492" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="C492" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D492">
         <v>1</v>
       </c>
       <c r="E492" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="F492">
         <v>47</v>
@@ -13757,16 +13753,16 @@
         <v>657</v>
       </c>
       <c r="B493" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="C493" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D493">
         <v>1</v>
       </c>
       <c r="E493" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="F493">
         <v>47</v>
@@ -13777,16 +13773,16 @@
         <v>657</v>
       </c>
       <c r="B494" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="C494" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="D494">
         <v>1</v>
       </c>
       <c r="E494" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="F494">
         <v>47</v>
@@ -13797,16 +13793,16 @@
         <v>657</v>
       </c>
       <c r="B495" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="C495" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="D495">
         <v>1</v>
       </c>
       <c r="E495" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F495">
         <v>47</v>
@@ -13814,19 +13810,19 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B496" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="C496" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="D496">
         <v>16</v>
       </c>
       <c r="E496" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="F496">
         <v>47</v>
@@ -13837,16 +13833,16 @@
         <v>647</v>
       </c>
       <c r="B498" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="C498" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="D498">
         <v>1</v>
       </c>
       <c r="E498" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="F498">
         <v>49</v>
@@ -13854,19 +13850,19 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B499" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="C499" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="D499">
         <v>16</v>
       </c>
       <c r="E499" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="F499">
         <v>49</v>
@@ -13874,19 +13870,19 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B500" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="C500" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="D500">
         <v>42</v>
       </c>
       <c r="E500" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="F500">
         <v>49</v>
@@ -13894,19 +13890,19 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B501" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="C501" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="D501">
         <v>42</v>
       </c>
       <c r="E501" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="F501">
         <v>49</v>
@@ -13914,19 +13910,19 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B502" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="C502" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D502">
         <v>42</v>
       </c>
       <c r="E502" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F502">
         <v>49</v>
@@ -13934,19 +13930,19 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B503" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="C503" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="D503">
         <v>16</v>
       </c>
       <c r="E503" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="F503">
         <v>49</v>
@@ -13954,19 +13950,19 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B504" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="C504" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="D504">
         <v>16</v>
       </c>
       <c r="E504" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="F504">
         <v>49</v>
@@ -13977,16 +13973,16 @@
         <v>647</v>
       </c>
       <c r="B506" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C506" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="D506">
         <v>1</v>
       </c>
       <c r="E506" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="F506">
         <v>99</v>
